--- a/data/World_Power_Dataset_FEATURE_ENGINEERED.xlsx
+++ b/data/World_Power_Dataset_FEATURE_ENGINEERED.xlsx
@@ -740,7 +740,7 @@
         <v>0.5646290125173187</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.336325849119872</v>
+        <v>0.252244386839904</v>
       </c>
     </row>
     <row r="3">
@@ -858,7 +858,7 @@
         <v>0.4853460239940874</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.2788236029052798</v>
+        <v>-0.2091177021789598</v>
       </c>
     </row>
     <row r="4">
@@ -976,7 +976,7 @@
         <v>0.7035209773512242</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.34736943748315</v>
+        <v>0.2605270781123625</v>
       </c>
     </row>
     <row r="5">
@@ -1094,7 +1094,7 @@
         <v>0.5656804997464633</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.09256254051372836</v>
+        <v>-0.06942190538529627</v>
       </c>
     </row>
     <row r="6">
@@ -1212,7 +1212,7 @@
         <v>0.3504371780533579</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.03625583904535041</v>
+        <v>0.02719187928401281</v>
       </c>
     </row>
     <row r="7">
@@ -1330,7 +1330,7 @@
         <v>0.2406806385612369</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1127872735281587</v>
+        <v>0.08459045514611901</v>
       </c>
     </row>
     <row r="8">
@@ -1448,7 +1448,7 @@
         <v>0.1257510771155958</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.3990939006400182</v>
+        <v>0.2993204254800136</v>
       </c>
     </row>
     <row r="9">
@@ -1566,7 +1566,7 @@
         <v>0.2500085535678684</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.3157872804836296</v>
+        <v>0.2368404603627222</v>
       </c>
     </row>
     <row r="10">
@@ -1684,7 +1684,7 @@
         <v>0.3277190146246504</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6072930938127404</v>
+        <v>0.4554698203595553</v>
       </c>
     </row>
     <row r="11">
@@ -1802,7 +1802,7 @@
         <v>0.1710523171037051</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.5587039133997111</v>
+        <v>0.4190279350497834</v>
       </c>
     </row>
     <row r="12">
@@ -1920,7 +1920,7 @@
         <v>0.328494136214136</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.3907303489115573</v>
+        <v>0.293047761683668</v>
       </c>
     </row>
     <row r="13">
@@ -2038,7 +2038,7 @@
         <v>0.5524055365887578</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1928082989627018</v>
+        <v>0.1446062242220264</v>
       </c>
     </row>
     <row r="14">
@@ -2156,7 +2156,7 @@
         <v>0.1158599603826985</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.1717422877772502</v>
+        <v>0.1288067158329377</v>
       </c>
     </row>
     <row r="15">
@@ -2274,7 +2274,7 @@
         <v>0.3024385257365841</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.3571572249192654</v>
+        <v>0.267867918689449</v>
       </c>
     </row>
     <row r="16">
@@ -2392,7 +2392,7 @@
         <v>0.1740268660153557</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.3509135076517393</v>
+        <v>0.2631851307388045</v>
       </c>
     </row>
     <row r="17">
@@ -2510,7 +2510,7 @@
         <v>0.2409953640001566</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.3379898842625567</v>
+        <v>0.2534924131969175</v>
       </c>
     </row>
     <row r="18">
@@ -2628,7 +2628,7 @@
         <v>0.3150101026959495</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.001509703039354012</v>
+        <v>-0.001132277279515509</v>
       </c>
     </row>
     <row r="19">
@@ -2746,7 +2746,7 @@
         <v>0.1693522260144848</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.4392950691051992</v>
+        <v>0.3294713018288994</v>
       </c>
     </row>
     <row r="20">
@@ -2864,7 +2864,7 @@
         <v>0.07453586784951038</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.6411226526567625</v>
+        <v>0.4808419894925718</v>
       </c>
     </row>
     <row r="21">
@@ -2982,7 +2982,7 @@
         <v>0.4697761001175345</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.2150431325122535</v>
+        <v>0.1612823493841901</v>
       </c>
     </row>
     <row r="22">
@@ -3100,7 +3100,7 @@
         <v>0.4557815823717276</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.2725469314887457</v>
+        <v>0.2044101986165593</v>
       </c>
     </row>
     <row r="23">
@@ -3218,7 +3218,7 @@
         <v>0.04277663880007548</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.4579291454896176</v>
+        <v>0.3434468591172132</v>
       </c>
     </row>
     <row r="24">
@@ -3336,7 +3336,7 @@
         <v>0.345986163167971</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.5701613295952458</v>
+        <v>0.4276209971964343</v>
       </c>
     </row>
     <row r="25">
@@ -3454,7 +3454,7 @@
         <v>0.1012670142402756</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.3523346426374024</v>
+        <v>0.2642509819780518</v>
       </c>
     </row>
     <row r="26">
@@ -3572,7 +3572,7 @@
         <v>0.2626576106149819</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.4949140341281749</v>
+        <v>0.3711855255961312</v>
       </c>
     </row>
     <row r="27">
@@ -3690,7 +3690,7 @@
         <v>0.02154409599345438</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.07723118606501549</v>
+        <v>0.05792338954876161</v>
       </c>
     </row>
     <row r="28">
@@ -3808,7 +3808,7 @@
         <v>0.3468932421988933</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.2408526903743363</v>
+        <v>0.1806395177807523</v>
       </c>
     </row>
     <row r="29">
@@ -3926,7 +3926,7 @@
         <v>0.1621106056196127</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.6718008177386219</v>
+        <v>0.5038506133039664</v>
       </c>
     </row>
     <row r="30">
@@ -4044,7 +4044,7 @@
         <v>0.5401923564771652</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.4489953903086039</v>
+        <v>0.3367465427314529</v>
       </c>
     </row>
     <row r="31">
@@ -4162,7 +4162,7 @@
         <v>0.289267249019644</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.1577667902382506</v>
+        <v>0.118325092678688</v>
       </c>
     </row>
     <row r="32">
@@ -4280,7 +4280,7 @@
         <v>0.239541087455708</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.3929173596545028</v>
+        <v>0.2946880197408771</v>
       </c>
     </row>
     <row r="33">
@@ -4398,7 +4398,7 @@
         <v>0.1813607212931974</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.6941033106730056</v>
+        <v>0.5205774830047541</v>
       </c>
     </row>
     <row r="34">
@@ -4516,7 +4516,7 @@
         <v>0.2701549469541276</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.07252907159039472</v>
+        <v>0.05439680369279604</v>
       </c>
     </row>
     <row r="35">
@@ -4634,7 +4634,7 @@
         <v>0.3213762020586616</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.6440330842003775</v>
+        <v>0.4830248131502832</v>
       </c>
     </row>
     <row r="36">
@@ -4752,7 +4752,7 @@
         <v>0.001397843605571866</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.2280114906955189</v>
+        <v>0.1710086180216392</v>
       </c>
     </row>
     <row r="37">
@@ -4870,7 +4870,7 @@
         <v>0.315036589011804</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.1834831579175403</v>
+        <v>0.1376123684381552</v>
       </c>
     </row>
     <row r="38">
@@ -4988,7 +4988,7 @@
         <v>0.4573036913217436</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.2230732632672207</v>
+        <v>0.1673049474504155</v>
       </c>
     </row>
     <row r="39">
@@ -5106,7 +5106,7 @@
         <v>0.1423737840772293</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.2938796496776918</v>
+        <v>0.2204097372582688</v>
       </c>
     </row>
     <row r="40">
@@ -5224,7 +5224,7 @@
         <v>0.1763412295156153</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.1651163572342319</v>
+        <v>0.1238372679256739</v>
       </c>
     </row>
     <row r="41">
@@ -5342,7 +5342,7 @@
         <v>0.2143193307161177</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.1503770987668828</v>
+        <v>0.1127828240751621</v>
       </c>
     </row>
     <row r="42">
@@ -5460,7 +5460,7 @@
         <v>0.1787535344240984</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.423162330208402</v>
+        <v>0.3173717476563015</v>
       </c>
     </row>
     <row r="43">
@@ -5578,7 +5578,7 @@
         <v>0.1290721324449783</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.5189027069924768</v>
+        <v>0.3891770302443576</v>
       </c>
     </row>
     <row r="44">
@@ -5696,7 +5696,7 @@
         <v>0.3151424239798375</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.4544812992048233</v>
+        <v>0.3408609744036175</v>
       </c>
     </row>
     <row r="45">
@@ -5814,7 +5814,7 @@
         <v>0.08255467291152183</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.2730618379355563</v>
+        <v>0.2047963784516673</v>
       </c>
     </row>
     <row r="46">
@@ -5932,7 +5932,7 @@
         <v>0.0864611494264293</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.2979125300668317</v>
+        <v>0.2234343975501237</v>
       </c>
     </row>
     <row r="47">
@@ -6050,7 +6050,7 @@
         <v>0.05663771858949573</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.4340523575673099</v>
+        <v>0.3255392681754824</v>
       </c>
     </row>
     <row r="48">
@@ -6168,7 +6168,7 @@
         <v>0.2869576987235507</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.33540575667635</v>
+        <v>0.2515543175072625</v>
       </c>
     </row>
     <row r="49">
@@ -6286,7 +6286,7 @@
         <v>0.3510278553796982</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.09098592885744035</v>
+        <v>0.06823944664308026</v>
       </c>
     </row>
     <row r="50">
@@ -6404,7 +6404,7 @@
         <v>0.2051609628489892</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.3834093703724995</v>
+        <v>0.2875570277793746</v>
       </c>
     </row>
     <row r="51">
@@ -6522,7 +6522,7 @@
         <v>0.2661648125507188</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.4408144221045096</v>
+        <v>0.3306108165783822</v>
       </c>
     </row>
     <row r="52">
@@ -6640,7 +6640,7 @@
         <v>0.3977202050325494</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.4739769629488477</v>
+        <v>0.3554827222116357</v>
       </c>
     </row>
     <row r="53">
@@ -6758,7 +6758,7 @@
         <v>0.2478063152502525</v>
       </c>
       <c r="AL53" t="n">
-        <v>0.06211620762417613</v>
+        <v>0.0465871557181321</v>
       </c>
     </row>
     <row r="54">
@@ -6876,7 +6876,7 @@
         <v>0.1289342916167139</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.1550711968670826</v>
+        <v>0.1163033976503119</v>
       </c>
     </row>
     <row r="55">
@@ -6994,7 +6994,7 @@
         <v>0.1716003745809524</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.3944254052729605</v>
+        <v>0.2958190539547204</v>
       </c>
     </row>
     <row r="56">
@@ -7112,7 +7112,7 @@
         <v>0.3558188760458751</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.8875097803137376</v>
+        <v>0.6656323352353032</v>
       </c>
     </row>
     <row r="57">
@@ -7230,7 +7230,7 @@
         <v>0.09183185422128275</v>
       </c>
       <c r="AL57" t="n">
-        <v>0.3109988900527247</v>
+        <v>0.2332491675395435</v>
       </c>
     </row>
     <row r="58">
@@ -7348,7 +7348,7 @@
         <v>0.06899755152340088</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.1149995777473331</v>
+        <v>0.08624968331049981</v>
       </c>
     </row>
     <row r="59">
@@ -7466,7 +7466,7 @@
         <v>0.1706078893198216</v>
       </c>
       <c r="AL59" t="n">
-        <v>-0.1556658280399726</v>
+        <v>-0.1167493710299795</v>
       </c>
     </row>
     <row r="60">
@@ -7584,7 +7584,7 @@
         <v>0.2769247787624655</v>
       </c>
       <c r="AL60" t="n">
-        <v>0.4731810959117724</v>
+        <v>0.3548858219338293</v>
       </c>
     </row>
     <row r="61">
@@ -7702,7 +7702,7 @@
         <v>0.01416157777614302</v>
       </c>
       <c r="AL61" t="n">
-        <v>-0.2321505130021516</v>
+        <v>-0.1741128847516137</v>
       </c>
     </row>
     <row r="62">
@@ -7820,7 +7820,7 @@
         <v>0.1238564551471014</v>
       </c>
       <c r="AL62" t="n">
-        <v>0.2880610835407602</v>
+        <v>0.2160458126555702</v>
       </c>
     </row>
     <row r="63">
@@ -7938,7 +7938,7 @@
         <v>0.2938578436481442</v>
       </c>
       <c r="AL63" t="n">
-        <v>0.3934019000761101</v>
+        <v>0.2950514250570826</v>
       </c>
     </row>
     <row r="64">
@@ -8056,7 +8056,7 @@
         <v>0.2812809528533054</v>
       </c>
       <c r="AL64" t="n">
-        <v>0.13117318375499</v>
+        <v>0.09837988781624246</v>
       </c>
     </row>
     <row r="65">
@@ -8174,7 +8174,7 @@
         <v>0.347807887985015</v>
       </c>
       <c r="AL65" t="n">
-        <v>0.3247091270462586</v>
+        <v>0.2435318452846939</v>
       </c>
     </row>
     <row r="66">
@@ -8292,7 +8292,7 @@
         <v>0.09246601542712669</v>
       </c>
       <c r="AL66" t="n">
-        <v>0.203833154847039</v>
+        <v>0.1528748661352793</v>
       </c>
     </row>
     <row r="67">
@@ -8410,7 +8410,7 @@
         <v>0.1725336656827101</v>
       </c>
       <c r="AL67" t="n">
-        <v>0.1450072480952461</v>
+        <v>0.1087554360714346</v>
       </c>
     </row>
     <row r="68">
@@ -8528,7 +8528,7 @@
         <v>0.1996974959355508</v>
       </c>
       <c r="AL68" t="n">
-        <v>0.3253455222159234</v>
+        <v>0.2440091416619426</v>
       </c>
     </row>
     <row r="69">
@@ -8646,7 +8646,7 @@
         <v>0.03449826472828349</v>
       </c>
       <c r="AL69" t="n">
-        <v>0.5072677588161912</v>
+        <v>0.3804508191121434</v>
       </c>
     </row>
     <row r="70">
@@ -8764,7 +8764,7 @@
         <v>0.03563527803100056</v>
       </c>
       <c r="AL70" t="n">
-        <v>0.3659783363907778</v>
+        <v>0.2744837522930833</v>
       </c>
     </row>
     <row r="71">
@@ -8882,7 +8882,7 @@
         <v>0.4329696662513063</v>
       </c>
       <c r="AL71" t="n">
-        <v>-0.0609539661695454</v>
+        <v>-0.04571547462715905</v>
       </c>
     </row>
     <row r="72">
@@ -9000,7 +9000,7 @@
         <v>0.2747846260684788</v>
       </c>
       <c r="AL72" t="n">
-        <v>0.2720533187034687</v>
+        <v>0.2040399890276015</v>
       </c>
     </row>
     <row r="73">
@@ -9118,7 +9118,7 @@
         <v>0.1584387441464474</v>
       </c>
       <c r="AL73" t="n">
-        <v>0.4470883955788525</v>
+        <v>0.3353162966841394</v>
       </c>
     </row>
     <row r="74">
@@ -9236,7 +9236,7 @@
         <v>0.1482427550743383</v>
       </c>
       <c r="AL74" t="n">
-        <v>0.6226266810207645</v>
+        <v>0.4669700107655734</v>
       </c>
     </row>
     <row r="75">
@@ -9354,7 +9354,7 @@
         <v>0.1703768784231077</v>
       </c>
       <c r="AL75" t="n">
-        <v>0.5356175871695116</v>
+        <v>0.4017131903771337</v>
       </c>
     </row>
     <row r="76">
@@ -9472,7 +9472,7 @@
         <v>0.2675991724082886</v>
       </c>
       <c r="AL76" t="n">
-        <v>0.4521380707802212</v>
+        <v>0.3391035530851659</v>
       </c>
     </row>
     <row r="77">
@@ -9590,7 +9590,7 @@
         <v>0.01413576902744164</v>
       </c>
       <c r="AL77" t="n">
-        <v>0.06328205583991867</v>
+        <v>0.047461541879939</v>
       </c>
     </row>
     <row r="78">
@@ -9708,7 +9708,7 @@
         <v>0.07006023888403234</v>
       </c>
       <c r="AL78" t="n">
-        <v>0.3451081757695412</v>
+        <v>0.2588311318271559</v>
       </c>
     </row>
     <row r="79">
@@ -9826,7 +9826,7 @@
         <v>0.1508273379003532</v>
       </c>
       <c r="AL79" t="n">
-        <v>-0.2004729380666677</v>
+        <v>-0.1503547035500008</v>
       </c>
     </row>
     <row r="80">
@@ -9944,7 +9944,7 @@
         <v>0.08074177526176853</v>
       </c>
       <c r="AL80" t="n">
-        <v>0.3964029645226722</v>
+        <v>0.2973022233920041</v>
       </c>
     </row>
     <row r="81">
@@ -10062,7 +10062,7 @@
         <v>0.230619983903162</v>
       </c>
       <c r="AL81" t="n">
-        <v>0.4158477932854948</v>
+        <v>0.3118858449641211</v>
       </c>
     </row>
     <row r="82">
@@ -10180,7 +10180,7 @@
         <v>0.3233941073329206</v>
       </c>
       <c r="AL82" t="n">
-        <v>0.2433209113607324</v>
+        <v>0.1824906835205493</v>
       </c>
     </row>
     <row r="83">
@@ -10298,7 +10298,7 @@
         <v>0.194710292484582</v>
       </c>
       <c r="AL83" t="n">
-        <v>0.3066585044500772</v>
+        <v>0.2299938783375579</v>
       </c>
     </row>
     <row r="84">
@@ -10416,7 +10416,7 @@
         <v>0.04598401934727611</v>
       </c>
       <c r="AL84" t="n">
-        <v>0.1695244071256863</v>
+        <v>0.1271433053442647</v>
       </c>
     </row>
     <row r="85">
@@ -10534,7 +10534,7 @@
         <v>0.01144337204792252</v>
       </c>
       <c r="AL85" t="n">
-        <v>0.3771219994636604</v>
+        <v>0.2828414995977453</v>
       </c>
     </row>
     <row r="86">
@@ -10652,7 +10652,7 @@
         <v>0.2094692958727171</v>
       </c>
       <c r="AL86" t="n">
-        <v>0.3357812293056093</v>
+        <v>0.251835921979207</v>
       </c>
     </row>
     <row r="87">
@@ -10770,7 +10770,7 @@
         <v>0.05103175574746613</v>
       </c>
       <c r="AL87" t="n">
-        <v>0.3026425528477155</v>
+        <v>0.2269819146357866</v>
       </c>
     </row>
     <row r="88">
@@ -10888,7 +10888,7 @@
         <v>0.3330375104524445</v>
       </c>
       <c r="AL88" t="n">
-        <v>0.3348871010079584</v>
+        <v>0.2511653257559688</v>
       </c>
     </row>
     <row r="89">
@@ -11006,7 +11006,7 @@
         <v>0.1396644574725719</v>
       </c>
       <c r="AL89" t="n">
-        <v>0.2956905108385179</v>
+        <v>0.2217678831288885</v>
       </c>
     </row>
     <row r="90">
@@ -11124,7 +11124,7 @@
         <v>0.08631973429571339</v>
       </c>
       <c r="AL90" t="n">
-        <v>0.2482054712923949</v>
+        <v>0.1861541034692962</v>
       </c>
     </row>
     <row r="91">
@@ -11242,7 +11242,7 @@
         <v>0.2937488280763992</v>
       </c>
       <c r="AL91" t="n">
-        <v>0.3190580769505659</v>
+        <v>0.2392935577129244</v>
       </c>
     </row>
     <row r="92">
@@ -11360,7 +11360,7 @@
         <v>0.1741008432276722</v>
       </c>
       <c r="AL92" t="n">
-        <v>-0.00315976482678069</v>
+        <v>-0.002369823620085518</v>
       </c>
     </row>
     <row r="93">
@@ -11478,7 +11478,7 @@
         <v>0.2171608707408364</v>
       </c>
       <c r="AL93" t="n">
-        <v>0.1599785391640074</v>
+        <v>0.1199839043730055</v>
       </c>
     </row>
     <row r="94">
@@ -11596,7 +11596,7 @@
         <v>0.01413815628504019</v>
       </c>
       <c r="AL94" t="n">
-        <v>0.4300991401958993</v>
+        <v>0.3225743551469245</v>
       </c>
     </row>
     <row r="95">
@@ -11714,7 +11714,7 @@
         <v>0.1817569500304522</v>
       </c>
       <c r="AL95" t="n">
-        <v>0.4293482852318175</v>
+        <v>0.3220112139238631</v>
       </c>
     </row>
     <row r="96">
@@ -11832,7 +11832,7 @@
         <v>0.196273833870905</v>
       </c>
       <c r="AL96" t="n">
-        <v>0.6111605978874634</v>
+        <v>0.4583704484155975</v>
       </c>
     </row>
     <row r="97">
@@ -11950,7 +11950,7 @@
         <v>0.2138245890436443</v>
       </c>
       <c r="AL97" t="n">
-        <v>-0.08835867474591619</v>
+        <v>-0.06626900605943714</v>
       </c>
     </row>
     <row r="98">
@@ -12068,7 +12068,7 @@
         <v>0.03263343761496307</v>
       </c>
       <c r="AL98" t="n">
-        <v>0.612664325995389</v>
+        <v>0.4594982444965418</v>
       </c>
     </row>
     <row r="99">
@@ -12186,7 +12186,7 @@
         <v>0.02910119303016064</v>
       </c>
       <c r="AL99" t="n">
-        <v>0.4258259931966095</v>
+        <v>0.3193694948974571</v>
       </c>
     </row>
     <row r="100">
@@ -12304,7 +12304,7 @@
         <v>0.2060141540065269</v>
       </c>
       <c r="AL100" t="n">
-        <v>0.5312869675466919</v>
+        <v>0.3984652256600189</v>
       </c>
     </row>
     <row r="101">
@@ -12422,7 +12422,7 @@
         <v>0.2471584773149873</v>
       </c>
       <c r="AL101" t="n">
-        <v>0.5513733553953353</v>
+        <v>0.4135300165465015</v>
       </c>
     </row>
     <row r="102">
@@ -12540,7 +12540,7 @@
         <v>0.3359988791387312</v>
       </c>
       <c r="AL102" t="n">
-        <v>0.164829911129228</v>
+        <v>0.123622433346921</v>
       </c>
     </row>
     <row r="103">
@@ -12658,7 +12658,7 @@
         <v>0.3353205172259364</v>
       </c>
       <c r="AL103" t="n">
-        <v>0.1459234238770963</v>
+        <v>0.1094425679078222</v>
       </c>
     </row>
     <row r="104">
@@ -12776,7 +12776,7 @@
         <v>0.1529555782208583</v>
       </c>
       <c r="AL104" t="n">
-        <v>0.4744345657549283</v>
+        <v>0.3558259243161962</v>
       </c>
     </row>
     <row r="105">
@@ -12894,7 +12894,7 @@
         <v>0.1706555869535708</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.1067972389914664</v>
+        <v>0.08009792924359976</v>
       </c>
     </row>
     <row r="106">
@@ -13012,7 +13012,7 @@
         <v>0.1611181075310987</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.621376011929589</v>
+        <v>0.4660320089471918</v>
       </c>
     </row>
     <row r="107">
@@ -13130,7 +13130,7 @@
         <v>0.01815692986107064</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.2416335721413787</v>
+        <v>0.1812251791060341</v>
       </c>
     </row>
     <row r="108">
@@ -13248,7 +13248,7 @@
         <v>0.1838219356460678</v>
       </c>
       <c r="AL108" t="n">
-        <v>-0.2250855033043983</v>
+        <v>-0.1688141274782987</v>
       </c>
     </row>
     <row r="109">
@@ -13366,7 +13366,7 @@
         <v>0.1239796083313698</v>
       </c>
       <c r="AL109" t="n">
-        <v>-0.001101624065285504</v>
+        <v>-0.000826218048964128</v>
       </c>
     </row>
     <row r="110">
@@ -13484,7 +13484,7 @@
         <v>0.03624034354147129</v>
       </c>
       <c r="AL110" t="n">
-        <v>0.08902187479685542</v>
+        <v>0.06676640609764156</v>
       </c>
     </row>
     <row r="111">
@@ -13602,7 +13602,7 @@
         <v>0.1664078849869496</v>
       </c>
       <c r="AL111" t="n">
-        <v>0.2882518682172332</v>
+        <v>0.2161889011629249</v>
       </c>
     </row>
     <row r="112">
@@ -13720,7 +13720,7 @@
         <v>0.08701563593077499</v>
       </c>
       <c r="AL112" t="n">
-        <v>0.2205117900116666</v>
+        <v>0.1653838425087499</v>
       </c>
     </row>
     <row r="113">
@@ -13838,7 +13838,7 @@
         <v>0.09928732085387117</v>
       </c>
       <c r="AL113" t="n">
-        <v>0.6594636424842799</v>
+        <v>0.4945977318632099</v>
       </c>
     </row>
     <row r="114">
@@ -13956,7 +13956,7 @@
         <v>0.1605688952625658</v>
       </c>
       <c r="AL114" t="n">
-        <v>-0.1038452240195167</v>
+        <v>-0.07788391801463754</v>
       </c>
     </row>
     <row r="115">
@@ -14074,7 +14074,7 @@
         <v>0.3155535359084092</v>
       </c>
       <c r="AL115" t="n">
-        <v>0.1228808406120682</v>
+        <v>0.09216063045905115</v>
       </c>
     </row>
     <row r="116">
@@ -14192,7 +14192,7 @@
         <v>0.2861616990127624</v>
       </c>
       <c r="AL116" t="n">
-        <v>0.2386080567418986</v>
+        <v>0.1789560425564239</v>
       </c>
     </row>
     <row r="117">
@@ -14310,7 +14310,7 @@
         <v>0.3323928084158722</v>
       </c>
       <c r="AL117" t="n">
-        <v>0.4118419134973084</v>
+        <v>0.3088814351229813</v>
       </c>
     </row>
     <row r="118">
@@ -14428,7 +14428,7 @@
         <v>0.1275311395324092</v>
       </c>
       <c r="AL118" t="n">
-        <v>0.4488907200943937</v>
+        <v>0.3366680400707953</v>
       </c>
     </row>
     <row r="119">
@@ -14546,7 +14546,7 @@
         <v>0.4097064990784048</v>
       </c>
       <c r="AL119" t="n">
-        <v>0.317473982400803</v>
+        <v>0.2381054868006023</v>
       </c>
     </row>
     <row r="120">
@@ -14664,7 +14664,7 @@
         <v>0.1418249458321546</v>
       </c>
       <c r="AL120" t="n">
-        <v>0.4466398909742593</v>
+        <v>0.3349799182306945</v>
       </c>
     </row>
     <row r="121">
@@ -14782,7 +14782,7 @@
         <v>0.1923076919211252</v>
       </c>
       <c r="AL121" t="n">
-        <v>0.2358181313484789</v>
+        <v>0.1768635985113592</v>
       </c>
     </row>
     <row r="122">
@@ -14900,7 +14900,7 @@
         <v>0.278293180163063</v>
       </c>
       <c r="AL122" t="n">
-        <v>0.4227717664036865</v>
+        <v>0.3170788248027648</v>
       </c>
     </row>
     <row r="123">
@@ -15018,7 +15018,7 @@
         <v>0.04291235428428739</v>
       </c>
       <c r="AL123" t="n">
-        <v>0.4219270435070553</v>
+        <v>0.3164452826302915</v>
       </c>
     </row>
     <row r="124">
@@ -15136,7 +15136,7 @@
         <v>0.2786094271414773</v>
       </c>
       <c r="AL124" t="n">
-        <v>0.09968480526199446</v>
+        <v>0.07476360394649584</v>
       </c>
     </row>
     <row r="125">
@@ -15254,7 +15254,7 @@
         <v>0.09089170563314652</v>
       </c>
       <c r="AL125" t="n">
-        <v>0.4617684156137148</v>
+        <v>0.3463263117102861</v>
       </c>
     </row>
     <row r="126">
@@ -15372,7 +15372,7 @@
         <v>0.174093471184517</v>
       </c>
       <c r="AL126" t="n">
-        <v>0.4479386715118265</v>
+        <v>0.3359540036338698</v>
       </c>
     </row>
     <row r="127">
@@ -15490,7 +15490,7 @@
         <v>0.07954164891070484</v>
       </c>
       <c r="AL127" t="n">
-        <v>0.2717080718661656</v>
+        <v>0.2037810538996242</v>
       </c>
     </row>
     <row r="128">
@@ -15608,7 +15608,7 @@
         <v>0.1046999028670597</v>
       </c>
       <c r="AL128" t="n">
-        <v>0.4736328618230998</v>
+        <v>0.3552246463673249</v>
       </c>
     </row>
     <row r="129">
@@ -15726,7 +15726,7 @@
         <v>0.03004734341332077</v>
       </c>
       <c r="AL129" t="n">
-        <v>0.5061910639333203</v>
+        <v>0.3796432979499902</v>
       </c>
     </row>
     <row r="130">
@@ -15844,7 +15844,7 @@
         <v>0.3659503965742539</v>
       </c>
       <c r="AL130" t="n">
-        <v>0.1449785084222151</v>
+        <v>0.1087338813166613</v>
       </c>
     </row>
     <row r="131">
@@ -15962,7 +15962,7 @@
         <v>0.02684000413861978</v>
       </c>
       <c r="AL131" t="n">
-        <v>0.3155391678202348</v>
+        <v>0.2366543758651761</v>
       </c>
     </row>
     <row r="132">
@@ -16080,7 +16080,7 @@
         <v>0.1644037486367861</v>
       </c>
       <c r="AL132" t="n">
-        <v>0.2636659452122782</v>
+        <v>0.1977494589092086</v>
       </c>
     </row>
     <row r="133">
@@ -16198,7 +16198,7 @@
         <v>0.04855955193339578</v>
       </c>
       <c r="AL133" t="n">
-        <v>0.4543629907811689</v>
+        <v>0.3407722430858767</v>
       </c>
     </row>
     <row r="134">
@@ -16316,7 +16316,7 @@
         <v>0.3316249990792645</v>
       </c>
       <c r="AL134" t="n">
-        <v>0.2236749445680225</v>
+        <v>0.1677562084260169</v>
       </c>
     </row>
     <row r="135">
@@ -16434,7 +16434,7 @@
         <v>0.1451055200529194</v>
       </c>
       <c r="AL135" t="n">
-        <v>0.3264703286473524</v>
+        <v>0.2448527464855143</v>
       </c>
     </row>
     <row r="136">
@@ -16552,7 +16552,7 @@
         <v>0.2562620492771738</v>
       </c>
       <c r="AL136" t="n">
-        <v>-0.09915831754733616</v>
+        <v>-0.07436873816050212</v>
       </c>
     </row>
     <row r="137">
@@ -16670,7 +16670,7 @@
         <v>0.01994550243535569</v>
       </c>
       <c r="AL137" t="n">
-        <v>0.1099002448252226</v>
+        <v>0.08242518361891693</v>
       </c>
     </row>
     <row r="138">
@@ -16788,7 +16788,7 @@
         <v>0.03494068751310166</v>
       </c>
       <c r="AL138" t="n">
-        <v>0.43895214808013</v>
+        <v>0.3292141110600975</v>
       </c>
     </row>
     <row r="139">
@@ -16906,7 +16906,7 @@
         <v>0.3211861952109616</v>
       </c>
       <c r="AL139" t="n">
-        <v>0.4571125762001576</v>
+        <v>0.3428344321501182</v>
       </c>
     </row>
     <row r="140">
@@ -17024,7 +17024,7 @@
         <v>0.1853851200378379</v>
       </c>
       <c r="AL140" t="n">
-        <v>0.6415126004098554</v>
+        <v>0.4811344503073915</v>
       </c>
     </row>
     <row r="141">
@@ -17142,7 +17142,7 @@
         <v>0.1699185914903821</v>
       </c>
       <c r="AL141" t="n">
-        <v>0.3000980156633855</v>
+        <v>0.2250735117475391</v>
       </c>
     </row>
     <row r="142">
@@ -17260,7 +17260,7 @@
         <v>0.2108081962675974</v>
       </c>
       <c r="AL142" t="n">
-        <v>0.4994270688749086</v>
+        <v>0.3745703016561814</v>
       </c>
     </row>
     <row r="143">
@@ -17378,7 +17378,7 @@
         <v>0.1780627695572598</v>
       </c>
       <c r="AL143" t="n">
-        <v>0.4427418949136957</v>
+        <v>0.3320564211852718</v>
       </c>
     </row>
     <row r="144">
@@ -17496,7 +17496,7 @@
         <v>0.1743238979748075</v>
       </c>
       <c r="AL144" t="n">
-        <v>0.4488110248636796</v>
+        <v>0.3366082686477597</v>
       </c>
     </row>
     <row r="145">
@@ -17614,7 +17614,7 @@
         <v>0.01542049090918288</v>
       </c>
       <c r="AL145" t="n">
-        <v>0.4811540333756599</v>
+        <v>0.360865525031745</v>
       </c>
     </row>
     <row r="146">
@@ -17732,7 +17732,7 @@
         <v>0.1388222175328984</v>
       </c>
       <c r="AL146" t="n">
-        <v>0.4107781228418807</v>
+        <v>0.3080835921314105</v>
       </c>
     </row>
     <row r="147">
@@ -17850,7 +17850,7 @@
         <v>0.09216157535793103</v>
       </c>
       <c r="AL147" t="n">
-        <v>0.1733591655009816</v>
+        <v>0.1300193741257362</v>
       </c>
     </row>
     <row r="148">
@@ -17968,7 +17968,7 @@
         <v>0.1686921266811654</v>
       </c>
       <c r="AL148" t="n">
-        <v>0.4069729005859968</v>
+        <v>0.3052296754394976</v>
       </c>
     </row>
     <row r="149">
@@ -18086,7 +18086,7 @@
         <v>0.2282243242269276</v>
       </c>
       <c r="AL149" t="n">
-        <v>0.1680028695486174</v>
+        <v>0.1260021521614631</v>
       </c>
     </row>
     <row r="150">
@@ -18204,7 +18204,7 @@
         <v>0.5725432050577161</v>
       </c>
       <c r="AL150" t="n">
-        <v>0.3722885769760646</v>
+        <v>0.2792164327320484</v>
       </c>
     </row>
     <row r="151">
@@ -18322,7 +18322,7 @@
         <v>0.05612618041283526</v>
       </c>
       <c r="AL151" t="n">
-        <v>0.2909528098633613</v>
+        <v>0.218214607397521</v>
       </c>
     </row>
     <row r="152">
@@ -18440,7 +18440,7 @@
         <v>0.135950508530137</v>
       </c>
       <c r="AL152" t="n">
-        <v>0.6038021521735187</v>
+        <v>0.452851614130139</v>
       </c>
     </row>
     <row r="153">
@@ -18558,7 +18558,7 @@
         <v>0.2889646738618287</v>
       </c>
       <c r="AL153" t="n">
-        <v>0.1001302924610856</v>
+        <v>0.07509771934581418</v>
       </c>
     </row>
     <row r="154">
@@ -18676,7 +18676,7 @@
         <v>0.1035630723642657</v>
       </c>
       <c r="AL154" t="n">
-        <v>0.4288690800998536</v>
+        <v>0.3216518100748902</v>
       </c>
     </row>
     <row r="155">
@@ -18794,7 +18794,7 @@
         <v>0.1663556302842016</v>
       </c>
       <c r="AL155" t="n">
-        <v>0.3167699357028824</v>
+        <v>0.2375774517771618</v>
       </c>
     </row>
     <row r="156">
@@ -18912,7 +18912,7 @@
         <v>0.3202600333096331</v>
       </c>
       <c r="AL156" t="n">
-        <v>0.4293537869705402</v>
+        <v>0.3220153402279051</v>
       </c>
     </row>
     <row r="157">
@@ -19030,7 +19030,7 @@
         <v>0.217907410661536</v>
       </c>
       <c r="AL157" t="n">
-        <v>0.1567506987581799</v>
+        <v>0.1175630240686349</v>
       </c>
     </row>
     <row r="158">
@@ -19148,7 +19148,7 @@
         <v>0.5964631976720357</v>
       </c>
       <c r="AL158" t="n">
-        <v>0.2808949370244015</v>
+        <v>0.2106712027683011</v>
       </c>
     </row>
     <row r="159">
@@ -19266,7 +19266,7 @@
         <v>0.475358288879965</v>
       </c>
       <c r="AL159" t="n">
-        <v>0.3659255140226892</v>
+        <v>0.2744441355170169</v>
       </c>
     </row>
     <row r="160">
@@ -19384,7 +19384,7 @@
         <v>0.3475903003494987</v>
       </c>
       <c r="AL160" t="n">
-        <v>0.3957442689565222</v>
+        <v>0.2968082017173916</v>
       </c>
     </row>
     <row r="161">
@@ -19502,7 +19502,7 @@
         <v>0.3916444515814697</v>
       </c>
       <c r="AL161" t="n">
-        <v>0.1525319241303927</v>
+        <v>0.1143989430977946</v>
       </c>
     </row>
     <row r="162">
@@ -19620,7 +19620,7 @@
         <v>0.3547195163953165</v>
       </c>
       <c r="AL162" t="n">
-        <v>0.2545682345618244</v>
+        <v>0.1909261759213683</v>
       </c>
     </row>
     <row r="163">
@@ -19738,7 +19738,7 @@
         <v>0.1172162529586579</v>
       </c>
       <c r="AL163" t="n">
-        <v>0.3756580530534965</v>
+        <v>0.2817435397901223</v>
       </c>
     </row>
     <row r="164">
@@ -19856,7 +19856,7 @@
         <v>0.5546043525877312</v>
       </c>
       <c r="AL164" t="n">
-        <v>0.0545448783599895</v>
+        <v>0.04090865876999213</v>
       </c>
     </row>
     <row r="165">
@@ -19974,7 +19974,7 @@
         <v>0.06759638496855698</v>
       </c>
       <c r="AL165" t="n">
-        <v>0.1575847025772566</v>
+        <v>0.1181885269329424</v>
       </c>
     </row>
     <row r="166">
@@ -20092,7 +20092,7 @@
         <v>0.1689130461786198</v>
       </c>
       <c r="AL166" t="n">
-        <v>0.3434324141196208</v>
+        <v>0.2575743105897156</v>
       </c>
     </row>
     <row r="167">
@@ -20210,7 +20210,7 @@
         <v>0.2206748405323831</v>
       </c>
       <c r="AL167" t="n">
-        <v>0.09049276350878434</v>
+        <v>0.06786957263158826</v>
       </c>
     </row>
     <row r="168">
@@ -20328,7 +20328,7 @@
         <v>0.2473294592920269</v>
       </c>
       <c r="AL168" t="n">
-        <v>0.6646122502084302</v>
+        <v>0.4984591876563226</v>
       </c>
     </row>
     <row r="169">
@@ -20446,7 +20446,7 @@
         <v>0.4165669155747407</v>
       </c>
       <c r="AL169" t="n">
-        <v>0.1890971249421755</v>
+        <v>0.1418228437066316</v>
       </c>
     </row>
     <row r="170">
@@ -20564,7 +20564,7 @@
         <v>0.185468459417364</v>
       </c>
       <c r="AL170" t="n">
-        <v>0.2142432087845915</v>
+        <v>0.1606824065884436</v>
       </c>
     </row>
     <row r="171">
@@ -20682,7 +20682,7 @@
         <v>0.2419160791130298</v>
       </c>
       <c r="AL171" t="n">
-        <v>0.4878105588675571</v>
+        <v>0.3658579191506678</v>
       </c>
     </row>
     <row r="172">
@@ -20800,7 +20800,7 @@
         <v>0.05371979244851002</v>
       </c>
       <c r="AL172" t="n">
-        <v>0.3492803317719608</v>
+        <v>0.2619602488289706</v>
       </c>
     </row>
     <row r="173">
@@ -20918,7 +20918,7 @@
         <v>0.1490225268576136</v>
       </c>
       <c r="AL173" t="n">
-        <v>0.5408600255253525</v>
+        <v>0.4056450191440144</v>
       </c>
     </row>
     <row r="174">
@@ -21036,7 +21036,7 @@
         <v>0.5024729067343304</v>
       </c>
       <c r="AL174" t="n">
-        <v>0.2781811128509188</v>
+        <v>0.2086358346381891</v>
       </c>
     </row>
     <row r="175">
@@ -21154,7 +21154,7 @@
         <v>0.1155747356489792</v>
       </c>
       <c r="AL175" t="n">
-        <v>0.3381524788687622</v>
+        <v>0.2536143591515716</v>
       </c>
     </row>
     <row r="176">
@@ -21272,7 +21272,7 @@
         <v>0.354136041870887</v>
       </c>
       <c r="AL176" t="n">
-        <v>0.3917757025218784</v>
+        <v>0.2938317768914088</v>
       </c>
     </row>
     <row r="177">
@@ -21390,7 +21390,7 @@
         <v>0.2253774577370305</v>
       </c>
       <c r="AL177" t="n">
-        <v>0.3655651079468458</v>
+        <v>0.2741738309601344</v>
       </c>
     </row>
     <row r="178">
@@ -21508,7 +21508,7 @@
         <v>0.1457891132173383</v>
       </c>
       <c r="AL178" t="n">
-        <v>0.08111019087001585</v>
+        <v>0.06083264315251189</v>
       </c>
     </row>
     <row r="179">
@@ -21626,7 +21626,7 @@
         <v>0.02329571699713652</v>
       </c>
       <c r="AL179" t="n">
-        <v>0.03491365930103134</v>
+        <v>0.0261852444757735</v>
       </c>
     </row>
     <row r="180">
@@ -21744,7 +21744,7 @@
         <v>0.2736433182479074</v>
       </c>
       <c r="AL180" t="n">
-        <v>0.4153931626355319</v>
+        <v>0.3115448719766489</v>
       </c>
     </row>
     <row r="181">
@@ -21862,7 +21862,7 @@
         <v>0.1748778515919934</v>
       </c>
       <c r="AL181" t="n">
-        <v>0.5209996792146591</v>
+        <v>0.3907497594109943</v>
       </c>
     </row>
     <row r="182">
@@ -21980,7 +21980,7 @@
         <v>0.1926459071518785</v>
       </c>
       <c r="AL182" t="n">
-        <v>0.2509487485242152</v>
+        <v>0.1882115613931614</v>
       </c>
     </row>
     <row r="183">
@@ -22098,7 +22098,7 @@
         <v>0.3038010953546904</v>
       </c>
       <c r="AL183" t="n">
-        <v>0.5632383023516345</v>
+        <v>0.4224287267637259</v>
       </c>
     </row>
     <row r="184">
@@ -22216,7 +22216,7 @@
         <v>0.174065930565401</v>
       </c>
       <c r="AL184" t="n">
-        <v>0.348476657923656</v>
+        <v>0.261357493442742</v>
       </c>
     </row>
     <row r="185">
@@ -22334,7 +22334,7 @@
         <v>0.176610049870459</v>
       </c>
       <c r="AL185" t="n">
-        <v>0.2107660082872026</v>
+        <v>0.1580745062154019</v>
       </c>
     </row>
     <row r="186">
@@ -22452,7 +22452,7 @@
         <v>0.3654712800725452</v>
       </c>
       <c r="AL186" t="n">
-        <v>0.4188029555978466</v>
+        <v>0.314102216698385</v>
       </c>
     </row>
     <row r="187">
@@ -22570,7 +22570,7 @@
         <v>0.2026877597616571</v>
       </c>
       <c r="AL187" t="n">
-        <v>0.3322896948779957</v>
+        <v>0.2492172711584968</v>
       </c>
     </row>
     <row r="188">
@@ -22688,7 +22688,7 @@
         <v>0.6177267365806741</v>
       </c>
       <c r="AL188" t="n">
-        <v>0.1854457175326594</v>
+        <v>0.1390842881494945</v>
       </c>
     </row>
     <row r="189">
@@ -22806,7 +22806,7 @@
         <v>0.1897772056185776</v>
       </c>
       <c r="AL189" t="n">
-        <v>0.6673341323788202</v>
+        <v>0.5005005992841152</v>
       </c>
     </row>
     <row r="190">
@@ -22924,7 +22924,7 @@
         <v>0.1719110341884592</v>
       </c>
       <c r="AL190" t="n">
-        <v>0.3221254555807951</v>
+        <v>0.2415940916855963</v>
       </c>
     </row>
     <row r="191">
@@ -23042,7 +23042,7 @@
         <v>0.1702939890498032</v>
       </c>
       <c r="AL191" t="n">
-        <v>0.5816325275743046</v>
+        <v>0.4362243956807285</v>
       </c>
     </row>
     <row r="192">
@@ -23160,7 +23160,7 @@
         <v>0.1327239872544733</v>
       </c>
       <c r="AL192" t="n">
-        <v>0.1853686042446984</v>
+        <v>0.1390264531835238</v>
       </c>
     </row>
     <row r="193">
@@ -23278,7 +23278,7 @@
         <v>0.1065783328260852</v>
       </c>
       <c r="AL193" t="n">
-        <v>0.3115780216307873</v>
+        <v>0.2336835162230905</v>
       </c>
     </row>
     <row r="194">
@@ -23396,7 +23396,7 @@
         <v>0.2686971816493965</v>
       </c>
       <c r="AL194" t="n">
-        <v>0.0517290698997494</v>
+        <v>0.03879680242481204</v>
       </c>
     </row>
     <row r="195">
@@ -23514,7 +23514,7 @@
         <v>0.1090654117586538</v>
       </c>
       <c r="AL195" t="n">
-        <v>0.1316656724062012</v>
+        <v>0.09874925430465087</v>
       </c>
     </row>
     <row r="196">
@@ -23632,7 +23632,7 @@
         <v>0.1044093419693531</v>
       </c>
       <c r="AL196" t="n">
-        <v>0.1755115201295846</v>
+        <v>0.1316336400971884</v>
       </c>
     </row>
     <row r="197">
@@ -23750,7 +23750,7 @@
         <v>0.05372266657991598</v>
       </c>
       <c r="AL197" t="n">
-        <v>0.3306275940468867</v>
+        <v>0.2479706955351651</v>
       </c>
     </row>
     <row r="198">
@@ -23868,7 +23868,7 @@
         <v>0.2845573515208824</v>
       </c>
       <c r="AL198" t="n">
-        <v>0.1169138081693609</v>
+        <v>0.08768535612702064</v>
       </c>
     </row>
     <row r="199">
@@ -23986,7 +23986,7 @@
         <v>0.0955221207965946</v>
       </c>
       <c r="AL199" t="n">
-        <v>0.3074285232794199</v>
+        <v>0.2305713924595649</v>
       </c>
     </row>
     <row r="200">
@@ -24104,7 +24104,7 @@
         <v>0.1465209570738577</v>
       </c>
       <c r="AL200" t="n">
-        <v>0.5863143198852407</v>
+        <v>0.4397357399139306</v>
       </c>
     </row>
     <row r="201">
@@ -24222,7 +24222,7 @@
         <v>0.1727944836872284</v>
       </c>
       <c r="AL201" t="n">
-        <v>0.3429738571635023</v>
+        <v>0.2572303928726267</v>
       </c>
     </row>
     <row r="202">
@@ -24340,7 +24340,7 @@
         <v>0.2030688363313324</v>
       </c>
       <c r="AL202" t="n">
-        <v>-7.498327713928443e-05</v>
+        <v>-5.623745785446332e-05</v>
       </c>
     </row>
     <row r="203">
@@ -24458,7 +24458,7 @@
         <v>0.1535360705809428</v>
       </c>
       <c r="AL203" t="n">
-        <v>0.53333929493208</v>
+        <v>0.40000447119906</v>
       </c>
     </row>
     <row r="204">
@@ -24576,7 +24576,7 @@
         <v>0.274044672898215</v>
       </c>
       <c r="AL204" t="n">
-        <v>0.3068025199185052</v>
+        <v>0.2301018899388789</v>
       </c>
     </row>
     <row r="205">
@@ -24694,7 +24694,7 @@
         <v>0.2881360591352239</v>
       </c>
       <c r="AL205" t="n">
-        <v>-0.001015570739242411</v>
+        <v>-0.000761678054431808</v>
       </c>
     </row>
     <row r="206">
@@ -24812,7 +24812,7 @@
         <v>0.06090341337204433</v>
       </c>
       <c r="AL206" t="n">
-        <v>0.166217202149865</v>
+        <v>0.1246629016123987</v>
       </c>
     </row>
     <row r="207">
@@ -24930,7 +24930,7 @@
         <v>0.2801038730649079</v>
       </c>
       <c r="AL207" t="n">
-        <v>0.302252281462933</v>
+        <v>0.2266892110971997</v>
       </c>
     </row>
     <row r="208">
@@ -25048,7 +25048,7 @@
         <v>0.05803583100907388</v>
       </c>
       <c r="AL208" t="n">
-        <v>0.5248153483672774</v>
+        <v>0.393611511275458</v>
       </c>
     </row>
     <row r="209">
@@ -25166,7 +25166,7 @@
         <v>0.1914140883133497</v>
       </c>
       <c r="AL209" t="n">
-        <v>0.5375476004215637</v>
+        <v>0.4031607003161728</v>
       </c>
     </row>
     <row r="210">
@@ -25284,7 +25284,7 @@
         <v>0.1168944904065741</v>
       </c>
       <c r="AL210" t="n">
-        <v>0.1570961769098461</v>
+        <v>0.1178221326823846</v>
       </c>
     </row>
     <row r="211">
@@ -25402,7 +25402,7 @@
         <v>0.2095245708917338</v>
       </c>
       <c r="AL211" t="n">
-        <v>0.2871380370143112</v>
+        <v>0.2153535277607334</v>
       </c>
     </row>
     <row r="212">
@@ -25520,7 +25520,7 @@
         <v>0.1952710418279413</v>
       </c>
       <c r="AL212" t="n">
-        <v>0.1966764259137457</v>
+        <v>0.1475073194353093</v>
       </c>
     </row>
     <row r="213">
@@ -25638,7 +25638,7 @@
         <v>0.006975974479145906</v>
       </c>
       <c r="AL213" t="n">
-        <v>0.2659959574553374</v>
+        <v>0.1994969680915031</v>
       </c>
     </row>
     <row r="214">
@@ -25756,7 +25756,7 @@
         <v>0.1739190749719375</v>
       </c>
       <c r="AL214" t="n">
-        <v>0.6523297491039427</v>
+        <v>0.489247311827957</v>
       </c>
     </row>
     <row r="215">
@@ -25874,7 +25874,7 @@
         <v>0.3418709740435693</v>
       </c>
       <c r="AL215" t="n">
-        <v>0.2109628868267102</v>
+        <v>0.1582221651200327</v>
       </c>
     </row>
     <row r="216">
@@ -25992,7 +25992,7 @@
         <v>0.2791079531159538</v>
       </c>
       <c r="AL216" t="n">
-        <v>0.3780775726759774</v>
+        <v>0.283558179506983</v>
       </c>
     </row>
     <row r="217">
@@ -26110,7 +26110,7 @@
         <v>0.06389777080051681</v>
       </c>
       <c r="AL217" t="n">
-        <v>0.5682029472267615</v>
+        <v>0.4261522104200711</v>
       </c>
     </row>
     <row r="218">
@@ -26228,7 +26228,7 @@
         <v>0.04934281545698346</v>
       </c>
       <c r="AL218" t="n">
-        <v>0.2020262175403811</v>
+        <v>0.1515196631552858</v>
       </c>
     </row>
     <row r="219">
@@ -26346,7 +26346,7 @@
         <v>0.1718099827237037</v>
       </c>
       <c r="AL219" t="n">
-        <v>0.2666208416883273</v>
+        <v>0.1999656312662454</v>
       </c>
     </row>
     <row r="220">
@@ -26464,7 +26464,7 @@
         <v>0.007489653892970717</v>
       </c>
       <c r="AL220" t="n">
-        <v>0.3526122669105511</v>
+        <v>0.2644592001829134</v>
       </c>
     </row>
     <row r="221">
@@ -26582,7 +26582,7 @@
         <v>0.3131581570440008</v>
       </c>
       <c r="AL221" t="n">
-        <v>0.1305829593041073</v>
+        <v>0.0979372194780805</v>
       </c>
     </row>
     <row r="222">
@@ -26700,7 +26700,7 @@
         <v>0.3045613080261057</v>
       </c>
       <c r="AL222" t="n">
-        <v>0.13587157888141</v>
+        <v>0.1019036841610575</v>
       </c>
     </row>
     <row r="223">
@@ -26818,7 +26818,7 @@
         <v>0.08338315199420532</v>
       </c>
       <c r="AL223" t="n">
-        <v>0.5323167390425924</v>
+        <v>0.3992375542819442</v>
       </c>
     </row>
     <row r="224">
@@ -26936,7 +26936,7 @@
         <v>0.2004079243592688</v>
       </c>
       <c r="AL224" t="n">
-        <v>0.3927811974318162</v>
+        <v>0.2945858980738622</v>
       </c>
     </row>
     <row r="225">
@@ -27054,7 +27054,7 @@
         <v>0.1537383834642995</v>
       </c>
       <c r="AL225" t="n">
-        <v>0.4776909264932954</v>
+        <v>0.3582681948699715</v>
       </c>
     </row>
     <row r="226">
@@ -27172,7 +27172,7 @@
         <v>0.199437226267956</v>
       </c>
       <c r="AL226" t="n">
-        <v>-0.06769061003366901</v>
+        <v>-0.05076795752525176</v>
       </c>
     </row>
     <row r="227">
@@ -27290,7 +27290,7 @@
         <v>0.1697439444776655</v>
       </c>
       <c r="AL227" t="n">
-        <v>0.4269008381469218</v>
+        <v>0.3201756286101913</v>
       </c>
     </row>
     <row r="228">
@@ -27408,7 +27408,7 @@
         <v>0.1756805809346806</v>
       </c>
       <c r="AL228" t="n">
-        <v>0.4059235403567154</v>
+        <v>0.3044426552675365</v>
       </c>
     </row>
     <row r="229">
@@ -27526,7 +27526,7 @@
         <v>0.3890268044007242</v>
       </c>
       <c r="AL229" t="n">
-        <v>0.1690976497492162</v>
+        <v>0.1268232373119122</v>
       </c>
     </row>
     <row r="230">
@@ -27644,7 +27644,7 @@
         <v>0.3138975200632255</v>
       </c>
       <c r="AL230" t="n">
-        <v>0.210615427305743</v>
+        <v>0.1579615704793073</v>
       </c>
     </row>
     <row r="231">
@@ -27762,7 +27762,7 @@
         <v>0.2829247460705322</v>
       </c>
       <c r="AL231" t="n">
-        <v>0.4845837462020401</v>
+        <v>0.3634378096515301</v>
       </c>
     </row>
     <row r="232">
@@ -27880,7 +27880,7 @@
         <v>0.1079224003539559</v>
       </c>
       <c r="AL232" t="n">
-        <v>0.5311336796835037</v>
+        <v>0.3983502597626277</v>
       </c>
     </row>
     <row r="233">
@@ -27998,7 +27998,7 @@
         <v>0.06429597196447054</v>
       </c>
       <c r="AL233" t="n">
-        <v>0.1179481393504173</v>
+        <v>0.08846110451281297</v>
       </c>
     </row>
     <row r="234">
@@ -28116,7 +28116,7 @@
         <v>0.2478286451054497</v>
       </c>
       <c r="AL234" t="n">
-        <v>0.1254212322825673</v>
+        <v>0.09406592421192547</v>
       </c>
     </row>
     <row r="235">
@@ -28234,7 +28234,7 @@
         <v>0.3957762318828006</v>
       </c>
       <c r="AL235" t="n">
-        <v>0.3243268995696725</v>
+        <v>0.2432451746772544</v>
       </c>
     </row>
     <row r="236">
@@ -28352,7 +28352,7 @@
         <v>0.1488125399311263</v>
       </c>
       <c r="AL236" t="n">
-        <v>0.4190437414163328</v>
+        <v>0.3142828060622496</v>
       </c>
     </row>
     <row r="237">
@@ -28470,7 +28470,7 @@
         <v>0.1719650158722246</v>
       </c>
       <c r="AL237" t="n">
-        <v>0.6129457841347676</v>
+        <v>0.4597093381010757</v>
       </c>
     </row>
     <row r="238">
@@ -28588,7 +28588,7 @@
         <v>0.2313156883020668</v>
       </c>
       <c r="AL238" t="n">
-        <v>0.1330252238070929</v>
+        <v>0.09976891785531967</v>
       </c>
     </row>
     <row r="239">
@@ -28706,7 +28706,7 @@
         <v>0.3193772168501091</v>
       </c>
       <c r="AL239" t="n">
-        <v>0.2395945880832978</v>
+        <v>0.1796959410624734</v>
       </c>
     </row>
     <row r="240">
@@ -28824,7 +28824,7 @@
         <v>0.1637689086560084</v>
       </c>
       <c r="AL240" t="n">
-        <v>0.5100258693254743</v>
+        <v>0.3825194019941057</v>
       </c>
     </row>
     <row r="241">
@@ -28942,7 +28942,7 @@
         <v>0.06426783712419792</v>
       </c>
       <c r="AL241" t="n">
-        <v>0.425347556170138</v>
+        <v>0.3190106671276035</v>
       </c>
     </row>
     <row r="242">
@@ -29060,7 +29060,7 @@
         <v>0.2008429029483296</v>
       </c>
       <c r="AL242" t="n">
-        <v>0.4748463207689697</v>
+        <v>0.3561347405767273</v>
       </c>
     </row>
     <row r="243">
@@ -29178,7 +29178,7 @@
         <v>0.287647785723862</v>
       </c>
       <c r="AL243" t="n">
-        <v>0.1335390154476066</v>
+        <v>0.1001542615857049</v>
       </c>
     </row>
     <row r="244">
@@ -29296,7 +29296,7 @@
         <v>0.2526013971658179</v>
       </c>
       <c r="AL244" t="n">
-        <v>0.5405989295170536</v>
+        <v>0.4054491971377902</v>
       </c>
     </row>
     <row r="245">
@@ -29414,7 +29414,7 @@
         <v>0.004316791645422037</v>
       </c>
       <c r="AL245" t="n">
-        <v>0.3905440824612196</v>
+        <v>0.2929080618459147</v>
       </c>
     </row>
     <row r="246">
@@ -29532,7 +29532,7 @@
         <v>0.1722941398876719</v>
       </c>
       <c r="AL246" t="n">
-        <v>0.03219823697323142</v>
+        <v>0.02414867772992357</v>
       </c>
     </row>
     <row r="247">
@@ -29650,7 +29650,7 @@
         <v>0.4448125288768609</v>
       </c>
       <c r="AL247" t="n">
-        <v>0.2635850774105301</v>
+        <v>0.1976888080578976</v>
       </c>
     </row>
     <row r="248">
@@ -29768,7 +29768,7 @@
         <v>0.08361788001541599</v>
       </c>
       <c r="AL248" t="n">
-        <v>0.4142842756915594</v>
+        <v>0.3107132067686695</v>
       </c>
     </row>
     <row r="249">
@@ -29886,7 +29886,7 @@
         <v>0.2635872995999142</v>
       </c>
       <c r="AL249" t="n">
-        <v>0.2423372689406945</v>
+        <v>0.1817529517055209</v>
       </c>
     </row>
     <row r="250">
@@ -30004,7 +30004,7 @@
         <v>0.213794173381288</v>
       </c>
       <c r="AL250" t="n">
-        <v>0.4820614492894204</v>
+        <v>0.3615460869670652</v>
       </c>
     </row>
     <row r="251">
@@ -30122,7 +30122,7 @@
         <v>0.03432641478554847</v>
       </c>
       <c r="AL251" t="n">
-        <v>0.4632803656441237</v>
+        <v>0.3474602742330928</v>
       </c>
     </row>
     <row r="252">
@@ -30240,7 +30240,7 @@
         <v>0.3534317620920777</v>
       </c>
       <c r="AL252" t="n">
-        <v>0.1850661297124802</v>
+        <v>0.1387995972843602</v>
       </c>
     </row>
     <row r="253">
@@ -30358,7 +30358,7 @@
         <v>0.09119346897506249</v>
       </c>
       <c r="AL253" t="n">
-        <v>0.1864172036325</v>
+        <v>0.139812902724375</v>
       </c>
     </row>
     <row r="254">
@@ -30476,7 +30476,7 @@
         <v>0.297255748183352</v>
       </c>
       <c r="AL254" t="n">
-        <v>0.3059301932626652</v>
+        <v>0.2294476449469989</v>
       </c>
     </row>
     <row r="255">
@@ -30594,7 +30594,7 @@
         <v>0.2211873496857334</v>
       </c>
       <c r="AL255" t="n">
-        <v>0.02055727047555695</v>
+        <v>0.01541795285666771</v>
       </c>
     </row>
     <row r="256">
@@ -30712,7 +30712,7 @@
         <v>0.1109665864426261</v>
       </c>
       <c r="AL256" t="n">
-        <v>0.3793532814933336</v>
+        <v>0.2845149611200002</v>
       </c>
     </row>
     <row r="257">
@@ -30830,7 +30830,7 @@
         <v>0.3167724638849889</v>
       </c>
       <c r="AL257" t="n">
-        <v>0.2529647211605423</v>
+        <v>0.1897235408704067</v>
       </c>
     </row>
     <row r="258">
@@ -30948,7 +30948,7 @@
         <v>0.06077840278817342</v>
       </c>
       <c r="AL258" t="n">
-        <v>0.3198150780867474</v>
+        <v>0.2398613085650605</v>
       </c>
     </row>
     <row r="259">
@@ -31066,7 +31066,7 @@
         <v>0.2941464429571823</v>
       </c>
       <c r="AL259" t="n">
-        <v>0.5073070078196862</v>
+        <v>0.3804802558647646</v>
       </c>
     </row>
     <row r="260">
@@ -31184,7 +31184,7 @@
         <v>0.01564694704276471</v>
       </c>
       <c r="AL260" t="n">
-        <v>0.5591624495650197</v>
+        <v>0.4193718371737648</v>
       </c>
     </row>
     <row r="261">
@@ -31302,7 +31302,7 @@
         <v>0.2882023569499543</v>
       </c>
       <c r="AL261" t="n">
-        <v>0.157661452347866</v>
+        <v>0.1182460892608995</v>
       </c>
     </row>
     <row r="262">
@@ -31420,7 +31420,7 @@
         <v>0.1457312250583434</v>
       </c>
       <c r="AL262" t="n">
-        <v>0.626824027311609</v>
+        <v>0.4701180204837068</v>
       </c>
     </row>
     <row r="263">
@@ -31538,7 +31538,7 @@
         <v>0.3034862443203091</v>
       </c>
       <c r="AL263" t="n">
-        <v>0.3972582845309169</v>
+        <v>0.2979437133981876</v>
       </c>
     </row>
     <row r="264">
@@ -31656,7 +31656,7 @@
         <v>0.2683938550624221</v>
       </c>
       <c r="AL264" t="n">
-        <v>0.3637296836342439</v>
+        <v>0.2727972627256829</v>
       </c>
     </row>
     <row r="265">
@@ -31774,7 +31774,7 @@
         <v>0.333687132637177</v>
       </c>
       <c r="AL265" t="n">
-        <v>0.1376795605814596</v>
+        <v>0.1032596704360947</v>
       </c>
     </row>
     <row r="266">
@@ -31892,7 +31892,7 @@
         <v>0.1349318686448741</v>
       </c>
       <c r="AL266" t="n">
-        <v>0.2570850084238641</v>
+        <v>0.192813756317898</v>
       </c>
     </row>
     <row r="267">
@@ -32010,7 +32010,7 @@
         <v>0.04939017255033248</v>
       </c>
       <c r="AL267" t="n">
-        <v>-0.08206683585625059</v>
+        <v>-0.06155012689218795</v>
       </c>
     </row>
     <row r="268">
@@ -32128,7 +32128,7 @@
         <v>0.2472673341521503</v>
       </c>
       <c r="AL268" t="n">
-        <v>0.4990361937290904</v>
+        <v>0.3742771452968178</v>
       </c>
     </row>
     <row r="269">
@@ -32246,7 +32246,7 @@
         <v>0.4646340266152628</v>
       </c>
       <c r="AL269" t="n">
-        <v>0.2658750483210096</v>
+        <v>0.1994062862407572</v>
       </c>
     </row>
     <row r="270">
@@ -32364,7 +32364,7 @@
         <v>0.0563891478895928</v>
       </c>
       <c r="AL270" t="n">
-        <v>0.1368337891843579</v>
+        <v>0.1026253418882684</v>
       </c>
     </row>
     <row r="271">
@@ -32482,7 +32482,7 @@
         <v>0.3181738989373252</v>
       </c>
       <c r="AL271" t="n">
-        <v>0.4287951307542929</v>
+        <v>0.3215963480657197</v>
       </c>
     </row>
     <row r="272">
@@ -32600,7 +32600,7 @@
         <v>0.2341513498739184</v>
       </c>
       <c r="AL272" t="n">
-        <v>0.07835985064756647</v>
+        <v>0.05876988798567485</v>
       </c>
     </row>
     <row r="273">
@@ -32718,7 +32718,7 @@
         <v>0.1346698829828369</v>
       </c>
       <c r="AL273" t="n">
-        <v>0.5751383283390231</v>
+        <v>0.4313537462542674</v>
       </c>
     </row>
     <row r="274">
@@ -32836,7 +32836,7 @@
         <v>0.1937138944419392</v>
       </c>
       <c r="AL274" t="n">
-        <v>0.6264550602340723</v>
+        <v>0.4698412951755542</v>
       </c>
     </row>
     <row r="275">
@@ -32954,7 +32954,7 @@
         <v>0.09644125913315406</v>
       </c>
       <c r="AL275" t="n">
-        <v>0.5882378537094529</v>
+        <v>0.4411783902820897</v>
       </c>
     </row>
     <row r="276">
@@ -33072,7 +33072,7 @@
         <v>0.2146964233857767</v>
       </c>
       <c r="AL276" t="n">
-        <v>0.8822310784534175</v>
+        <v>0.6616733088400631</v>
       </c>
     </row>
     <row r="277">
@@ -33190,7 +33190,7 @@
         <v>0.08589304014400083</v>
       </c>
       <c r="AL277" t="n">
-        <v>0.6240523818419853</v>
+        <v>0.468039286381489</v>
       </c>
     </row>
     <row r="278">
@@ -33308,7 +33308,7 @@
         <v>0.02579545349233683</v>
       </c>
       <c r="AL278" t="n">
-        <v>0.6140725060689856</v>
+        <v>0.4605543795517392</v>
       </c>
     </row>
     <row r="279">
@@ -33426,7 +33426,7 @@
         <v>0.3118845373058391</v>
       </c>
       <c r="AL279" t="n">
-        <v>0.2730803911027005</v>
+        <v>0.2048102933270254</v>
       </c>
     </row>
     <row r="280">
@@ -33544,7 +33544,7 @@
         <v>0.1515741293444871</v>
       </c>
       <c r="AL280" t="n">
-        <v>0.4327893324313452</v>
+        <v>0.3245919993235089</v>
       </c>
     </row>
     <row r="281">
@@ -33662,7 +33662,7 @@
         <v>0.2962094049268355</v>
       </c>
       <c r="AL281" t="n">
-        <v>0.3815398351245244</v>
+        <v>0.2861548763433933</v>
       </c>
     </row>
     <row r="282">
@@ -33780,7 +33780,7 @@
         <v>0.2598444937609954</v>
       </c>
       <c r="AL282" t="n">
-        <v>0.5868242934237603</v>
+        <v>0.4401182200678203</v>
       </c>
     </row>
     <row r="283">
@@ -33898,7 +33898,7 @@
         <v>0.185735938711915</v>
       </c>
       <c r="AL283" t="n">
-        <v>-0.03191020592399259</v>
+        <v>-0.02393265444299444</v>
       </c>
     </row>
     <row r="284">
@@ -34016,7 +34016,7 @@
         <v>0.1745863119087304</v>
       </c>
       <c r="AL284" t="n">
-        <v>0.2381535601849978</v>
+        <v>0.1786151701387483</v>
       </c>
     </row>
     <row r="285">
@@ -34134,7 +34134,7 @@
         <v>0.1421335643545824</v>
       </c>
       <c r="AL285" t="n">
-        <v>0.5431675050767684</v>
+        <v>0.4073756288075763</v>
       </c>
     </row>
     <row r="286">
@@ -34252,7 +34252,7 @@
         <v>0.1023220647418761</v>
       </c>
       <c r="AL286" t="n">
-        <v>0.367743928612495</v>
+        <v>0.2758079464593712</v>
       </c>
     </row>
     <row r="287">
@@ -34370,7 +34370,7 @@
         <v>0.1898710922425236</v>
       </c>
       <c r="AL287" t="n">
-        <v>0.262827920981812</v>
+        <v>0.197120940736359</v>
       </c>
     </row>
     <row r="288">
@@ -34488,7 +34488,7 @@
         <v>0.210190865148409</v>
       </c>
       <c r="AL288" t="n">
-        <v>0.5423859528239827</v>
+        <v>0.406789464617987</v>
       </c>
     </row>
     <row r="289">
@@ -34606,7 +34606,7 @@
         <v>0.3592796190084787</v>
       </c>
       <c r="AL289" t="n">
-        <v>0.302432475607292</v>
+        <v>0.226824356705469</v>
       </c>
     </row>
     <row r="290">
@@ -34724,7 +34724,7 @@
         <v>0.09171797001430188</v>
       </c>
       <c r="AL290" t="n">
-        <v>0.4100044116157657</v>
+        <v>0.3075033087118242</v>
       </c>
     </row>
     <row r="291">
@@ -34842,7 +34842,7 @@
         <v>0.231322927155712</v>
       </c>
       <c r="AL291" t="n">
-        <v>0.1752962990690854</v>
+        <v>0.131472224301814</v>
       </c>
     </row>
     <row r="292">
@@ -34960,7 +34960,7 @@
         <v>0.02588577666900153</v>
       </c>
       <c r="AL292" t="n">
-        <v>0.1623396357419848</v>
+        <v>0.1217547268064886</v>
       </c>
     </row>
     <row r="293">
@@ -35078,7 +35078,7 @@
         <v>0.1481184212566234</v>
       </c>
       <c r="AL293" t="n">
-        <v>0.4024651327388906</v>
+        <v>0.301848849554168</v>
       </c>
     </row>
     <row r="294">
@@ -35196,7 +35196,7 @@
         <v>0.1066567339373153</v>
       </c>
       <c r="AL294" t="n">
-        <v>0.1728716226105623</v>
+        <v>0.1296537169579217</v>
       </c>
     </row>
     <row r="295">
@@ -35314,7 +35314,7 @@
         <v>0.06703925064710638</v>
       </c>
       <c r="AL295" t="n">
-        <v>0.2998016768005876</v>
+        <v>0.2248512576004407</v>
       </c>
     </row>
     <row r="296">
@@ -35432,7 +35432,7 @@
         <v>0.1998327092641609</v>
       </c>
       <c r="AL296" t="n">
-        <v>0.4681922231737159</v>
+        <v>0.351144167380287</v>
       </c>
     </row>
     <row r="297">
@@ -35550,7 +35550,7 @@
         <v>0.2257772988738135</v>
       </c>
       <c r="AL297" t="n">
-        <v>0.3789831600814192</v>
+        <v>0.2842373700610644</v>
       </c>
     </row>
     <row r="298">
@@ -35668,7 +35668,7 @@
         <v>0.1466198180909632</v>
       </c>
       <c r="AL298" t="n">
-        <v>0.4561288960092968</v>
+        <v>0.3420966720069726</v>
       </c>
     </row>
     <row r="299">
@@ -35786,7 +35786,7 @@
         <v>0.4643311187727624</v>
       </c>
       <c r="AL299" t="n">
-        <v>0.2497635888029194</v>
+        <v>0.1873226916021895</v>
       </c>
     </row>
     <row r="300">
@@ -35904,7 +35904,7 @@
         <v>0.1033653957880795</v>
       </c>
       <c r="AL300" t="n">
-        <v>0.4995876250315893</v>
+        <v>0.374690718773692</v>
       </c>
     </row>
     <row r="301">
@@ -36022,7 +36022,7 @@
         <v>0.02973430114052371</v>
       </c>
       <c r="AL301" t="n">
-        <v>0.09339542117953419</v>
+        <v>0.07004656588465064</v>
       </c>
     </row>
     <row r="302">
@@ -36140,7 +36140,7 @@
         <v>0.1715427737674533</v>
       </c>
       <c r="AL302" t="n">
-        <v>-0.04418680522757668</v>
+        <v>-0.03314010392068251</v>
       </c>
     </row>
     <row r="303">
@@ -36258,7 +36258,7 @@
         <v>0.1459475760294526</v>
       </c>
       <c r="AL303" t="n">
-        <v>0.3140374478287061</v>
+        <v>0.2355280858715296</v>
       </c>
     </row>
     <row r="304">
@@ -36376,7 +36376,7 @@
         <v>0.1699629949364896</v>
       </c>
       <c r="AL304" t="n">
-        <v>-0.04623537666885173</v>
+        <v>-0.0346765325016388</v>
       </c>
     </row>
     <row r="305">
@@ -36494,7 +36494,7 @@
         <v>0.313430687160108</v>
       </c>
       <c r="AL305" t="n">
-        <v>0.2299874637034857</v>
+        <v>0.1724905977776142</v>
       </c>
     </row>
     <row r="306">
@@ -36612,7 +36612,7 @@
         <v>0.09393596153541539</v>
       </c>
       <c r="AL306" t="n">
-        <v>-0.05205243033820987</v>
+        <v>-0.0390393227536574</v>
       </c>
     </row>
     <row r="307">
@@ -36730,7 +36730,7 @@
         <v>0.04280755511202144</v>
       </c>
       <c r="AL307" t="n">
-        <v>0.009816904684559166</v>
+        <v>0.007362678513419374</v>
       </c>
     </row>
     <row r="308">
@@ -36848,7 +36848,7 @@
         <v>0.1693349252853578</v>
       </c>
       <c r="AL308" t="n">
-        <v>0.2534738489983842</v>
+        <v>0.1901053867487881</v>
       </c>
     </row>
     <row r="309">
@@ -36966,7 +36966,7 @@
         <v>0.3247503245202943</v>
       </c>
       <c r="AL309" t="n">
-        <v>0.3159609707926574</v>
+        <v>0.236970728094493</v>
       </c>
     </row>
     <row r="310">
@@ -37084,7 +37084,7 @@
         <v>0.171927152017123</v>
       </c>
       <c r="AL310" t="n">
-        <v>0.2998489967045739</v>
+        <v>0.2248867475284304</v>
       </c>
     </row>
     <row r="311">
@@ -37202,7 +37202,7 @@
         <v>0.2727229738813737</v>
       </c>
       <c r="AL311" t="n">
-        <v>0.3395636063947031</v>
+        <v>0.2546727047960273</v>
       </c>
     </row>
     <row r="312">
@@ -37320,7 +37320,7 @@
         <v>0.5398353343030052</v>
       </c>
       <c r="AL312" t="n">
-        <v>0.01022879194245548</v>
+        <v>0.007671593956841612</v>
       </c>
     </row>
     <row r="313">
@@ -37438,7 +37438,7 @@
         <v>0.06599307590396626</v>
       </c>
       <c r="AL313" t="n">
-        <v>-0.06883430661704644</v>
+        <v>-0.05162572996278483</v>
       </c>
     </row>
     <row r="314">
@@ -37556,7 +37556,7 @@
         <v>0.6418075816117086</v>
       </c>
       <c r="AL314" t="n">
-        <v>0.4041547061376649</v>
+        <v>0.3031160296032487</v>
       </c>
     </row>
     <row r="315">
@@ -37674,7 +37674,7 @@
         <v>0.7849456183164684</v>
       </c>
       <c r="AL315" t="n">
-        <v>-0.05455455247202196</v>
+        <v>-0.04091591435401647</v>
       </c>
     </row>
     <row r="316">
@@ -37792,7 +37792,7 @@
         <v>0.2987426729981453</v>
       </c>
       <c r="AL316" t="n">
-        <v>0.4514635469814133</v>
+        <v>0.33859766023606</v>
       </c>
     </row>
     <row r="317">
@@ -37910,7 +37910,7 @@
         <v>0.3391496038584172</v>
       </c>
       <c r="AL317" t="n">
-        <v>0.04203058456062558</v>
+        <v>0.03152293842046918</v>
       </c>
     </row>
     <row r="318">
@@ -38028,7 +38028,7 @@
         <v>0.3174471355552588</v>
       </c>
       <c r="AL318" t="n">
-        <v>0.4509795306108173</v>
+        <v>0.338234647958113</v>
       </c>
     </row>
     <row r="319">
@@ -38146,7 +38146,7 @@
         <v>0.2050110864936237</v>
       </c>
       <c r="AL319" t="n">
-        <v>0.1911395427532225</v>
+        <v>0.1433546570649168</v>
       </c>
     </row>
     <row r="320">
@@ -38264,7 +38264,7 @@
         <v>0.09446207693842357</v>
       </c>
       <c r="AL320" t="n">
-        <v>-0.1163265543012373</v>
+        <v>-0.08724491572592795</v>
       </c>
     </row>
     <row r="321">
@@ -38382,7 +38382,7 @@
         <v>0.3695812902169663</v>
       </c>
       <c r="AL321" t="n">
-        <v>0.619399227507902</v>
+        <v>0.4645494206309265</v>
       </c>
     </row>
     <row r="322">
@@ -38500,7 +38500,7 @@
         <v>0.07068330620079662</v>
       </c>
       <c r="AL322" t="n">
-        <v>0.157706073410599</v>
+        <v>0.1182795550579492</v>
       </c>
     </row>
     <row r="323">
@@ -38618,7 +38618,7 @@
         <v>0.2005568509032412</v>
       </c>
       <c r="AL323" t="n">
-        <v>0.5470771270926501</v>
+        <v>0.4103078453194876</v>
       </c>
     </row>
     <row r="324">
@@ -38736,7 +38736,7 @@
         <v>0.247588418057277</v>
       </c>
       <c r="AL324" t="n">
-        <v>0.2056134730717695</v>
+        <v>0.1542101048038271</v>
       </c>
     </row>
     <row r="325">
@@ -38854,7 +38854,7 @@
         <v>0.330285655705457</v>
       </c>
       <c r="AL325" t="n">
-        <v>0.2219266382037515</v>
+        <v>0.1664449786528136</v>
       </c>
     </row>
     <row r="326">
@@ -38972,7 +38972,7 @@
         <v>0.2023915287606491</v>
       </c>
       <c r="AL326" t="n">
-        <v>0.2727916810266288</v>
+        <v>0.2045937607699716</v>
       </c>
     </row>
     <row r="327">
@@ -39090,7 +39090,7 @@
         <v>0.1568767122595213</v>
       </c>
       <c r="AL327" t="n">
-        <v>0.487371883269085</v>
+        <v>0.3655289124518137</v>
       </c>
     </row>
     <row r="328">
@@ -39208,7 +39208,7 @@
         <v>0.2686066303370475</v>
       </c>
       <c r="AL328" t="n">
-        <v>0.2661174629640888</v>
+        <v>0.1995880972230666</v>
       </c>
     </row>
     <row r="329">
@@ -39326,7 +39326,7 @@
         <v>0.02772207439203558</v>
       </c>
       <c r="AL329" t="n">
-        <v>0.3913886433427821</v>
+        <v>0.2935414825070866</v>
       </c>
     </row>
     <row r="330">
@@ -39444,7 +39444,7 @@
         <v>0.2100057190813721</v>
       </c>
       <c r="AL330" t="n">
-        <v>0.5961295211026232</v>
+        <v>0.4470971408269674</v>
       </c>
     </row>
     <row r="331">
@@ -39562,7 +39562,7 @@
         <v>0.3349030774678758</v>
       </c>
       <c r="AL331" t="n">
-        <v>0.4050347360389159</v>
+        <v>0.3037760520291869</v>
       </c>
     </row>
     <row r="332">
@@ -39680,7 +39680,7 @@
         <v>0.333573328395093</v>
       </c>
       <c r="AL332" t="n">
-        <v>0.2028927382475926</v>
+        <v>0.1521695536856945</v>
       </c>
     </row>
     <row r="333">
@@ -39798,7 +39798,7 @@
         <v>0.2963309690604493</v>
       </c>
       <c r="AL333" t="n">
-        <v>0.000547561300104397</v>
+        <v>0.0004106709750782978</v>
       </c>
     </row>
     <row r="334">
@@ -39916,7 +39916,7 @@
         <v>0.0505693524188023</v>
       </c>
       <c r="AL334" t="n">
-        <v>0.4485105280738644</v>
+        <v>0.3363828960553983</v>
       </c>
     </row>
     <row r="335">
@@ -40034,7 +40034,7 @@
         <v>0.1650447927255362</v>
       </c>
       <c r="AL335" t="n">
-        <v>0.4983536457299348</v>
+        <v>0.3737652342974511</v>
       </c>
     </row>
     <row r="336">
@@ -40152,7 +40152,7 @@
         <v>0.2896408683787843</v>
       </c>
       <c r="AL336" t="n">
-        <v>0.06098275791665927</v>
+        <v>0.04573706843749445</v>
       </c>
     </row>
     <row r="337">
@@ -40270,7 +40270,7 @@
         <v>0.1518802828543037</v>
       </c>
       <c r="AL337" t="n">
-        <v>0.2507632133689089</v>
+        <v>0.1880724100266817</v>
       </c>
     </row>
     <row r="338">
@@ -40388,7 +40388,7 @@
         <v>0.1392091480707476</v>
       </c>
       <c r="AL338" t="n">
-        <v>0.4996002543605929</v>
+        <v>0.3747001907704447</v>
       </c>
     </row>
     <row r="339">
@@ -40506,7 +40506,7 @@
         <v>0.1289303643921123</v>
       </c>
       <c r="AL339" t="n">
-        <v>0.4293678728618042</v>
+        <v>0.3220259046463531</v>
       </c>
     </row>
     <row r="340">
@@ -40624,7 +40624,7 @@
         <v>0.3303441940125879</v>
       </c>
       <c r="AL340" t="n">
-        <v>0.5436232409191942</v>
+        <v>0.4077174306893957</v>
       </c>
     </row>
     <row r="341">
@@ -40742,7 +40742,7 @@
         <v>0.3423880274979529</v>
       </c>
       <c r="AL341" t="n">
-        <v>0.2273863439159762</v>
+        <v>0.1705397579369821</v>
       </c>
     </row>
     <row r="342">
@@ -40860,7 +40860,7 @@
         <v>0.1891856548223993</v>
       </c>
       <c r="AL342" t="n">
-        <v>0.1303059213420172</v>
+        <v>0.09772944100651287</v>
       </c>
     </row>
     <row r="343">
@@ -40978,7 +40978,7 @@
         <v>0.1509757745870603</v>
       </c>
       <c r="AL343" t="n">
-        <v>0.2990250374315291</v>
+        <v>0.2242687780736469</v>
       </c>
     </row>
     <row r="344">
@@ -41096,7 +41096,7 @@
         <v>0.3716253888774561</v>
       </c>
       <c r="AL344" t="n">
-        <v>0.07987170331364157</v>
+        <v>0.05990377748523118</v>
       </c>
     </row>
     <row r="345">
@@ -41214,7 +41214,7 @@
         <v>0.426143283576951</v>
       </c>
       <c r="AL345" t="n">
-        <v>0.16982863799606</v>
+        <v>0.127371478497045</v>
       </c>
     </row>
     <row r="346">
@@ -41332,7 +41332,7 @@
         <v>0.1698851570177691</v>
       </c>
       <c r="AL346" t="n">
-        <v>0.4512298540473695</v>
+        <v>0.3384223905355271</v>
       </c>
     </row>
     <row r="347">
@@ -41450,7 +41450,7 @@
         <v>0.1716196894743364</v>
       </c>
       <c r="AL347" t="n">
-        <v>0.5949810477719033</v>
+        <v>0.4462357858289275</v>
       </c>
     </row>
     <row r="348">
@@ -41568,7 +41568,7 @@
         <v>0.178698502693441</v>
       </c>
       <c r="AL348" t="n">
-        <v>0.5712388193307053</v>
+        <v>0.428429114498029</v>
       </c>
     </row>
     <row r="349">
@@ -41686,7 +41686,7 @@
         <v>0.2948630627049103</v>
       </c>
       <c r="AL349" t="n">
-        <v>0.3383891011104434</v>
+        <v>0.2537918258328326</v>
       </c>
     </row>
     <row r="350">
@@ -41804,7 +41804,7 @@
         <v>0.1457868076134724</v>
       </c>
       <c r="AL350" t="n">
-        <v>0.3541403203172564</v>
+        <v>0.2656052402379423</v>
       </c>
     </row>
     <row r="351">
@@ -41922,7 +41922,7 @@
         <v>0.1712423344923467</v>
       </c>
       <c r="AL351" t="n">
-        <v>0.4246979923772696</v>
+        <v>0.3185234942829522</v>
       </c>
     </row>
     <row r="352">
@@ -42040,7 +42040,7 @@
         <v>0.331541799600029</v>
       </c>
       <c r="AL352" t="n">
-        <v>0.2622343742923079</v>
+        <v>0.1966757807192309</v>
       </c>
     </row>
     <row r="353">
@@ -42158,7 +42158,7 @@
         <v>0.1319311087924687</v>
       </c>
       <c r="AL353" t="n">
-        <v>0.1568126764079795</v>
+        <v>0.1176095073059846</v>
       </c>
     </row>
     <row r="354">
@@ -42276,7 +42276,7 @@
         <v>0.4065164328921396</v>
       </c>
       <c r="AL354" t="n">
-        <v>0.2713719948385991</v>
+        <v>0.2035289961289494</v>
       </c>
     </row>
     <row r="355">
@@ -42394,7 +42394,7 @@
         <v>0.2621805955176762</v>
       </c>
       <c r="AL355" t="n">
-        <v>0.353469379525932</v>
+        <v>0.265102034644449</v>
       </c>
     </row>
     <row r="356">
@@ -42512,7 +42512,7 @@
         <v>0.1684846521152563</v>
       </c>
       <c r="AL356" t="n">
-        <v>0.3476279224415619</v>
+        <v>0.2607209418311714</v>
       </c>
     </row>
     <row r="357">
@@ -42630,7 +42630,7 @@
         <v>0.2470947182777489</v>
       </c>
       <c r="AL357" t="n">
-        <v>0.1073860208768503</v>
+        <v>0.0805395156576377</v>
       </c>
     </row>
     <row r="358">
@@ -42748,7 +42748,7 @@
         <v>0.03979045803539375</v>
       </c>
       <c r="AL358" t="n">
-        <v>0.1137264054190132</v>
+        <v>0.0852948040642599</v>
       </c>
     </row>
     <row r="359">
@@ -42866,7 +42866,7 @@
         <v>0.5121901781031154</v>
       </c>
       <c r="AL359" t="n">
-        <v>0.3097598093503769</v>
+        <v>0.2323198570127827</v>
       </c>
     </row>
     <row r="360">
@@ -42984,7 +42984,7 @@
         <v>0.4009349059842894</v>
       </c>
       <c r="AL360" t="n">
-        <v>0.5200396613766959</v>
+        <v>0.3900297460325219</v>
       </c>
     </row>
     <row r="361">
@@ -43102,7 +43102,7 @@
         <v>0.3378381283711095</v>
       </c>
       <c r="AL361" t="n">
-        <v>0.1292403194136991</v>
+        <v>0.09693023956027433</v>
       </c>
     </row>
     <row r="362">
@@ -43220,7 +43220,7 @@
         <v>0.3118453215329894</v>
       </c>
       <c r="AL362" t="n">
-        <v>0.1263860466370214</v>
+        <v>0.09478953497776606</v>
       </c>
     </row>
     <row r="363">
@@ -43338,7 +43338,7 @@
         <v>0.0793337645518377</v>
       </c>
       <c r="AL363" t="n">
-        <v>0.4543170391576792</v>
+        <v>0.3407377793682594</v>
       </c>
     </row>
     <row r="364">
@@ -43456,7 +43456,7 @@
         <v>0.4085488573107299</v>
       </c>
       <c r="AL364" t="n">
-        <v>0.1546873152899998</v>
+        <v>0.1160154864674998</v>
       </c>
     </row>
     <row r="365">
@@ -43574,7 +43574,7 @@
         <v>0.2724904518866962</v>
       </c>
       <c r="AL365" t="n">
-        <v>0.3570709290405834</v>
+        <v>0.2678031967804375</v>
       </c>
     </row>
     <row r="366">
@@ -43692,7 +43692,7 @@
         <v>0.2407931330264861</v>
       </c>
       <c r="AL366" t="n">
-        <v>0.3273225656798648</v>
+        <v>0.2454919242598986</v>
       </c>
     </row>
     <row r="367">
@@ -43810,7 +43810,7 @@
         <v>0.2173132574480024</v>
       </c>
       <c r="AL367" t="n">
-        <v>0.5413847776620154</v>
+        <v>0.4060385832465115</v>
       </c>
     </row>
     <row r="368">
@@ -43928,7 +43928,7 @@
         <v>0.071216804336446</v>
       </c>
       <c r="AL368" t="n">
-        <v>0.4021895238972348</v>
+        <v>0.3016421429229261</v>
       </c>
     </row>
     <row r="369">
@@ -44046,7 +44046,7 @@
         <v>0.1479242131621191</v>
       </c>
       <c r="AL369" t="n">
-        <v>0.334005864912796</v>
+        <v>0.250504398684597</v>
       </c>
     </row>
     <row r="370">
@@ -44164,7 +44164,7 @@
         <v>0.04815648619746788</v>
       </c>
       <c r="AL370" t="n">
-        <v>0.4613649194960834</v>
+        <v>0.3460236896220625</v>
       </c>
     </row>
     <row r="371">
@@ -44282,7 +44282,7 @@
         <v>0.5752988051035088</v>
       </c>
       <c r="AL371" t="n">
-        <v>0.2303586316338474</v>
+        <v>0.1727689737253855</v>
       </c>
     </row>
     <row r="372">
@@ -44400,7 +44400,7 @@
         <v>0.1216839776965503</v>
       </c>
       <c r="AL372" t="n">
-        <v>0.1703459166998329</v>
+        <v>0.1277594375248746</v>
       </c>
     </row>
     <row r="373">
@@ -44518,7 +44518,7 @@
         <v>0.01579226861557323</v>
       </c>
       <c r="AL373" t="n">
-        <v>0.2169649646265465</v>
+        <v>0.1627237234699099</v>
       </c>
     </row>
     <row r="374">
@@ -44636,7 +44636,7 @@
         <v>0.1745385881551564</v>
       </c>
       <c r="AL374" t="n">
-        <v>0.3011417284752417</v>
+        <v>0.2258562963564313</v>
       </c>
     </row>
     <row r="375">
@@ -44754,7 +44754,7 @@
         <v>0.2234664448009377</v>
       </c>
       <c r="AL375" t="n">
-        <v>0.4263181816734774</v>
+        <v>0.3197386362551081</v>
       </c>
     </row>
     <row r="376">
@@ -44872,7 +44872,7 @@
         <v>0.1859704742378217</v>
       </c>
       <c r="AL376" t="n">
-        <v>0.1735793068420367</v>
+        <v>0.1301844801315275</v>
       </c>
     </row>
     <row r="377">
@@ -44990,7 +44990,7 @@
         <v>0.1731324938729583</v>
       </c>
       <c r="AL377" t="n">
-        <v>-0.2351370408617287</v>
+        <v>-0.1763527806462965</v>
       </c>
     </row>
     <row r="378">
@@ -45108,7 +45108,7 @@
         <v>0.2208669440676291</v>
       </c>
       <c r="AL378" t="n">
-        <v>0.5712961122950736</v>
+        <v>0.4284720842213052</v>
       </c>
     </row>
     <row r="379">
@@ -45226,7 +45226,7 @@
         <v>0.2126579866277929</v>
       </c>
       <c r="AL379" t="n">
-        <v>0.571900819389218</v>
+        <v>0.4289256145419135</v>
       </c>
     </row>
     <row r="380">
@@ -45344,7 +45344,7 @@
         <v>0.1730272335205013</v>
       </c>
       <c r="AL380" t="n">
-        <v>-0.01191115319824917</v>
+        <v>-0.008933364898686874</v>
       </c>
     </row>
     <row r="381">
@@ -45462,7 +45462,7 @@
         <v>0.0301789449754306</v>
       </c>
       <c r="AL381" t="n">
-        <v>0.2207175036748446</v>
+        <v>0.1655381277561335</v>
       </c>
     </row>
     <row r="382">
@@ -45580,7 +45580,7 @@
         <v>0.03951240518920342</v>
       </c>
       <c r="AL382" t="n">
-        <v>0.6641565068670093</v>
+        <v>0.498117380150257</v>
       </c>
     </row>
     <row r="383">
@@ -45698,7 +45698,7 @@
         <v>0.3329278772649371</v>
       </c>
       <c r="AL383" t="n">
-        <v>0.3684681399236919</v>
+        <v>0.2763511049427689</v>
       </c>
     </row>
     <row r="384">
@@ -45816,7 +45816,7 @@
         <v>0.2535893664624801</v>
       </c>
       <c r="AL384" t="n">
-        <v>0.2248882781662523</v>
+        <v>0.1686662086246892</v>
       </c>
     </row>
     <row r="385">
@@ -45934,7 +45934,7 @@
         <v>0.08504246958565716</v>
       </c>
       <c r="AL385" t="n">
-        <v>0.06632488085047313</v>
+        <v>0.04974366063785485</v>
       </c>
     </row>
     <row r="386">
@@ -46052,7 +46052,7 @@
         <v>0.2419139768813485</v>
       </c>
       <c r="AL386" t="n">
-        <v>0.5897602293656053</v>
+        <v>0.442320172024204</v>
       </c>
     </row>
     <row r="387">
@@ -46170,7 +46170,7 @@
         <v>0.0353255374839039</v>
       </c>
       <c r="AL387" t="n">
-        <v>0.481123842667557</v>
+        <v>0.3608428820006677</v>
       </c>
     </row>
     <row r="388">
@@ -46288,7 +46288,7 @@
         <v>0.328100226521733</v>
       </c>
       <c r="AL388" t="n">
-        <v>-0.001008139449886243</v>
+        <v>-0.0007561045874146818</v>
       </c>
     </row>
     <row r="389">
@@ -46406,7 +46406,7 @@
         <v>0.2911683672784418</v>
       </c>
       <c r="AL389" t="n">
-        <v>0.5827933555194876</v>
+        <v>0.4370950166396157</v>
       </c>
     </row>
     <row r="390">
@@ -46524,7 +46524,7 @@
         <v>0.324192008486736</v>
       </c>
       <c r="AL390" t="n">
-        <v>0.4254932758106892</v>
+        <v>0.3191199568580169</v>
       </c>
     </row>
     <row r="391">
@@ -46642,7 +46642,7 @@
         <v>0.07092204970371298</v>
       </c>
       <c r="AL391" t="n">
-        <v>0.07294035044891252</v>
+        <v>0.05470526283668439</v>
       </c>
     </row>
     <row r="392">
@@ -46760,7 +46760,7 @@
         <v>0.4257939710657343</v>
       </c>
       <c r="AL392" t="n">
-        <v>0.2551817397852789</v>
+        <v>0.1913863048389592</v>
       </c>
     </row>
     <row r="393">
@@ -46878,7 +46878,7 @@
         <v>0.2461917419229722</v>
       </c>
       <c r="AL393" t="n">
-        <v>0.4227802880101154</v>
+        <v>0.3170852160075865</v>
       </c>
     </row>
     <row r="394">
@@ -46996,7 +46996,7 @@
         <v>0.07389190514029634</v>
       </c>
       <c r="AL394" t="n">
-        <v>0.3771373920598868</v>
+        <v>0.2828530440449151</v>
       </c>
     </row>
     <row r="395">
@@ -47114,7 +47114,7 @@
         <v>0.008969249500252852</v>
       </c>
       <c r="AL395" t="n">
-        <v>0.3560251534330106</v>
+        <v>0.2670188650747579</v>
       </c>
     </row>
     <row r="396">
@@ -47232,7 +47232,7 @@
         <v>0.1315982049439205</v>
       </c>
       <c r="AL396" t="n">
-        <v>0.4416464954023744</v>
+        <v>0.3312348715517808</v>
       </c>
     </row>
     <row r="397">
@@ -47350,7 +47350,7 @@
         <v>0.1472458254265885</v>
       </c>
       <c r="AL397" t="n">
-        <v>0.2513115844174255</v>
+        <v>0.1884836883130691</v>
       </c>
     </row>
     <row r="398">
@@ -47468,7 +47468,7 @@
         <v>0.1927256304696847</v>
       </c>
       <c r="AL398" t="n">
-        <v>0.1955222364588698</v>
+        <v>0.1466416773441524</v>
       </c>
     </row>
     <row r="399">
@@ -47586,7 +47586,7 @@
         <v>0.06817570742353092</v>
       </c>
       <c r="AL399" t="n">
-        <v>0.239677696643966</v>
+        <v>0.1797582724829745</v>
       </c>
     </row>
     <row r="400">
@@ -47704,7 +47704,7 @@
         <v>0.02428908882972445</v>
       </c>
       <c r="AL400" t="n">
-        <v>0.1997904707787648</v>
+        <v>0.1498428530840736</v>
       </c>
     </row>
     <row r="401">
@@ -47822,7 +47822,7 @@
         <v>0.1285559806256001</v>
       </c>
       <c r="AL401" t="n">
-        <v>0.08733151012130753</v>
+        <v>0.06549863259098065</v>
       </c>
     </row>
     <row r="402">
@@ -47940,7 +47940,7 @@
         <v>0.2428753968941706</v>
       </c>
       <c r="AL402" t="n">
-        <v>0.6224747569018961</v>
+        <v>0.4668560676764221</v>
       </c>
     </row>
     <row r="403">
@@ -48058,7 +48058,7 @@
         <v>0.2046899268822548</v>
       </c>
       <c r="AL403" t="n">
-        <v>0.5146801990299439</v>
+        <v>0.3860101492724579</v>
       </c>
     </row>
     <row r="404">
@@ -48176,7 +48176,7 @@
         <v>0.1785317635110838</v>
       </c>
       <c r="AL404" t="n">
-        <v>0.5075506226493078</v>
+        <v>0.3806629669869809</v>
       </c>
     </row>
     <row r="405">
@@ -48294,7 +48294,7 @@
         <v>0.3103905991701297</v>
       </c>
       <c r="AL405" t="n">
-        <v>0.4332500755385807</v>
+        <v>0.3249375566539355</v>
       </c>
     </row>
     <row r="406">
@@ -48412,7 +48412,7 @@
         <v>0.1749943829179204</v>
       </c>
       <c r="AL406" t="n">
-        <v>0.291802469152149</v>
+        <v>0.2188518518641118</v>
       </c>
     </row>
     <row r="407">
@@ -48530,7 +48530,7 @@
         <v>0.2981836214673898</v>
       </c>
       <c r="AL407" t="n">
-        <v>0.1045928197099707</v>
+        <v>0.07844461478247799</v>
       </c>
     </row>
     <row r="408">
@@ -48648,7 +48648,7 @@
         <v>0.1421626653849861</v>
       </c>
       <c r="AL408" t="n">
-        <v>-0.01350492655968701</v>
+        <v>-0.01012869491976526</v>
       </c>
     </row>
     <row r="409">
@@ -48766,7 +48766,7 @@
         <v>0.2173030236746162</v>
       </c>
       <c r="AL409" t="n">
-        <v>0.2232095682364417</v>
+        <v>0.1674071761773313</v>
       </c>
     </row>
     <row r="410">
@@ -48884,7 +48884,7 @@
         <v>0.1963209117384256</v>
       </c>
       <c r="AL410" t="n">
-        <v>0.4282180942564479</v>
+        <v>0.3211635706923359</v>
       </c>
     </row>
     <row r="411">
@@ -49002,7 +49002,7 @@
         <v>0.3874865435402641</v>
       </c>
       <c r="AL411" t="n">
-        <v>0.2928459999243725</v>
+        <v>0.2196344999432794</v>
       </c>
     </row>
     <row r="412">
@@ -49120,7 +49120,7 @@
         <v>0.2426447692043889</v>
       </c>
       <c r="AL412" t="n">
-        <v>0.1544528398654707</v>
+        <v>0.115839629899103</v>
       </c>
     </row>
     <row r="413">
@@ -49238,7 +49238,7 @@
         <v>0.0124508584023728</v>
       </c>
       <c r="AL413" t="n">
-        <v>0.5443962745590191</v>
+        <v>0.4082972059192643</v>
       </c>
     </row>
     <row r="414">
@@ -49356,7 +49356,7 @@
         <v>0.2723565799314647</v>
       </c>
       <c r="AL414" t="n">
-        <v>0.08612759850950386</v>
+        <v>0.06459569888212789</v>
       </c>
     </row>
     <row r="415">
@@ -49474,7 +49474,7 @@
         <v>0.3119152363201312</v>
       </c>
       <c r="AL415" t="n">
-        <v>0.305987183672219</v>
+        <v>0.2294903877541642</v>
       </c>
     </row>
     <row r="416">
@@ -49592,7 +49592,7 @@
         <v>0.1844068135131857</v>
       </c>
       <c r="AL416" t="n">
-        <v>0.1086869952995115</v>
+        <v>0.08151524647463364</v>
       </c>
     </row>
     <row r="417">
@@ -49710,7 +49710,7 @@
         <v>0.1245020050661618</v>
       </c>
       <c r="AL417" t="n">
-        <v>0.01452701983066486</v>
+        <v>0.01089526487299865</v>
       </c>
     </row>
     <row r="418">
@@ -49828,7 +49828,7 @@
         <v>0.01515853034658435</v>
       </c>
       <c r="AL418" t="n">
-        <v>0.3168013239922911</v>
+        <v>0.2376009929942183</v>
       </c>
     </row>
     <row r="419">
@@ -49946,7 +49946,7 @@
         <v>0.175153196662832</v>
       </c>
       <c r="AL419" t="n">
-        <v>0.4375017681894282</v>
+        <v>0.3281263261420711</v>
       </c>
     </row>
     <row r="420">
@@ -50064,7 +50064,7 @@
         <v>0.1573532099194309</v>
       </c>
       <c r="AL420" t="n">
-        <v>0.2979261059549289</v>
+        <v>0.2234445794661967</v>
       </c>
     </row>
     <row r="421">
@@ -50182,7 +50182,7 @@
         <v>0.09280350860166879</v>
       </c>
       <c r="AL421" t="n">
-        <v>0.1852164825773769</v>
+        <v>0.1389123619330326</v>
       </c>
     </row>
     <row r="422">
@@ -50300,7 +50300,7 @@
         <v>0.1012909963209325</v>
       </c>
       <c r="AL422" t="n">
-        <v>0.208683486525947</v>
+        <v>0.1565126148944603</v>
       </c>
     </row>
     <row r="423">
@@ -50418,7 +50418,7 @@
         <v>0.1436328018186875</v>
       </c>
       <c r="AL423" t="n">
-        <v>-0.1571306985837619</v>
+        <v>-0.1178480239378214</v>
       </c>
     </row>
     <row r="424">
@@ -50536,7 +50536,7 @@
         <v>0.1274358442684517</v>
       </c>
       <c r="AL424" t="n">
-        <v>0.2456351201566398</v>
+        <v>0.1842263401174799</v>
       </c>
     </row>
     <row r="425">
@@ -50654,7 +50654,7 @@
         <v>0.1723291570166729</v>
       </c>
       <c r="AL425" t="n">
-        <v>0.3348601565881668</v>
+        <v>0.2511451174411251</v>
       </c>
     </row>
     <row r="426">
@@ -50772,7 +50772,7 @@
         <v>0.1746104140350003</v>
       </c>
       <c r="AL426" t="n">
-        <v>0.3274976213678705</v>
+        <v>0.2456232160259029</v>
       </c>
     </row>
     <row r="427">
@@ -50890,7 +50890,7 @@
         <v>0.1720918322102263</v>
       </c>
       <c r="AL427" t="n">
-        <v>0.1828522584587957</v>
+        <v>0.1371391938440968</v>
       </c>
     </row>
     <row r="428">
@@ -51008,7 +51008,7 @@
         <v>0.259598336180277</v>
       </c>
       <c r="AL428" t="n">
-        <v>0.1905455721048769</v>
+        <v>0.1429091790786576</v>
       </c>
     </row>
     <row r="429">
@@ -51126,7 +51126,7 @@
         <v>0.1579251184257222</v>
       </c>
       <c r="AL429" t="n">
-        <v>0.1009839913991474</v>
+        <v>0.07573799354936057</v>
       </c>
     </row>
     <row r="430">
@@ -51244,7 +51244,7 @@
         <v>0.1428768844169898</v>
       </c>
       <c r="AL430" t="n">
-        <v>0.1323160954469777</v>
+        <v>0.09923707158523329</v>
       </c>
     </row>
     <row r="431">
@@ -51362,7 +51362,7 @@
         <v>0.1273423214241113</v>
       </c>
       <c r="AL431" t="n">
-        <v>0.2478338179093905</v>
+        <v>0.1858753634320429</v>
       </c>
     </row>
     <row r="432">
@@ -51480,7 +51480,7 @@
         <v>0.136018960131751</v>
       </c>
       <c r="AL432" t="n">
-        <v>0.5205982551796468</v>
+        <v>0.390448691384735</v>
       </c>
     </row>
     <row r="433">
@@ -51598,7 +51598,7 @@
         <v>0.2795606608934217</v>
       </c>
       <c r="AL433" t="n">
-        <v>0.0736525360695421</v>
+        <v>0.05523940205215658</v>
       </c>
     </row>
     <row r="434">
@@ -51716,7 +51716,7 @@
         <v>0.1192449628202848</v>
       </c>
       <c r="AL434" t="n">
-        <v>0.2717871229597845</v>
+        <v>0.2038403422198384</v>
       </c>
     </row>
     <row r="435">
@@ -51834,7 +51834,7 @@
         <v>0.1715942443566961</v>
       </c>
       <c r="AL435" t="n">
-        <v>0.5203526293627594</v>
+        <v>0.3902644720220695</v>
       </c>
     </row>
     <row r="436">
@@ -51952,7 +51952,7 @@
         <v>0.2088049576148692</v>
       </c>
       <c r="AL436" t="n">
-        <v>0.4152004917677363</v>
+        <v>0.3114003688258022</v>
       </c>
     </row>
     <row r="437">
@@ -52070,7 +52070,7 @@
         <v>0.07371569157226571</v>
       </c>
       <c r="AL437" t="n">
-        <v>0.5620299414860582</v>
+        <v>0.4215224561145437</v>
       </c>
     </row>
     <row r="438">
@@ -52188,7 +52188,7 @@
         <v>0.0767492277391752</v>
       </c>
       <c r="AL438" t="n">
-        <v>0.3678008886889212</v>
+        <v>0.2758506665166909</v>
       </c>
     </row>
     <row r="439">
@@ -52306,7 +52306,7 @@
         <v>0.2336901943927723</v>
       </c>
       <c r="AL439" t="n">
-        <v>0.5659596287586428</v>
+        <v>0.4244697215689821</v>
       </c>
     </row>
     <row r="440">
@@ -52424,7 +52424,7 @@
         <v>0.2537360712787726</v>
       </c>
       <c r="AL440" t="n">
-        <v>-0.1559634963396997</v>
+        <v>-0.1169726222547748</v>
       </c>
     </row>
     <row r="441">
@@ -52542,7 +52542,7 @@
         <v>0.221867504932059</v>
       </c>
       <c r="AL441" t="n">
-        <v>0.2046277939083814</v>
+        <v>0.153470845431286</v>
       </c>
     </row>
     <row r="442">
@@ -52660,7 +52660,7 @@
         <v>0.03673688841425386</v>
       </c>
       <c r="AL442" t="n">
-        <v>0.351972545313453</v>
+        <v>0.2639794089850897</v>
       </c>
     </row>
     <row r="443">
@@ -52778,7 +52778,7 @@
         <v>0.1742719784580043</v>
       </c>
       <c r="AL443" t="n">
-        <v>0.08329681325902062</v>
+        <v>0.06247260994426546</v>
       </c>
     </row>
     <row r="444">
@@ -52896,7 +52896,7 @@
         <v>0.06544858999938082</v>
       </c>
       <c r="AL444" t="n">
-        <v>0.3128466574758822</v>
+        <v>0.2346349931069116</v>
       </c>
     </row>
     <row r="445">
@@ -53014,7 +53014,7 @@
         <v>0.4123124854479531</v>
       </c>
       <c r="AL445" t="n">
-        <v>0.3234712423314247</v>
+        <v>0.2426034317485685</v>
       </c>
     </row>
     <row r="446">
@@ -53132,7 +53132,7 @@
         <v>0.3789011551665135</v>
       </c>
       <c r="AL446" t="n">
-        <v>0.2524708647907483</v>
+        <v>0.1893531485930612</v>
       </c>
     </row>
     <row r="447">
@@ -53250,7 +53250,7 @@
         <v>0.2832416573282289</v>
       </c>
       <c r="AL447" t="n">
-        <v>0.3763694024953328</v>
+        <v>0.2822770518714997</v>
       </c>
     </row>
     <row r="448">
@@ -53368,7 +53368,7 @@
         <v>0.2893966040060181</v>
       </c>
       <c r="AL448" t="n">
-        <v>0.4512516846124152</v>
+        <v>0.3384387634593114</v>
       </c>
     </row>
     <row r="449">
@@ -53486,7 +53486,7 @@
         <v>0.3259354936340687</v>
       </c>
       <c r="AL449" t="n">
-        <v>0.243519022248684</v>
+        <v>0.182639266686513</v>
       </c>
     </row>
     <row r="450">
@@ -53604,7 +53604,7 @@
         <v>0.175384363839717</v>
       </c>
       <c r="AL450" t="n">
-        <v>0.5562862502688554</v>
+        <v>0.4172146877016415</v>
       </c>
     </row>
     <row r="451">
@@ -53722,7 +53722,7 @@
         <v>0.157930323686641</v>
       </c>
       <c r="AL451" t="n">
-        <v>0.3046394052437246</v>
+        <v>0.2284795539327935</v>
       </c>
     </row>
     <row r="452">
@@ -53840,7 +53840,7 @@
         <v>0.3113840169497964</v>
       </c>
       <c r="AL452" t="n">
-        <v>0.2951469392386606</v>
+        <v>0.2213602044289955</v>
       </c>
     </row>
     <row r="453">
@@ -53958,7 +53958,7 @@
         <v>0.4136974276506343</v>
       </c>
       <c r="AL453" t="n">
-        <v>0.3266401715224865</v>
+        <v>0.2449801286418649</v>
       </c>
     </row>
     <row r="454">
@@ -54076,7 +54076,7 @@
         <v>0.02268273053869018</v>
       </c>
       <c r="AL454" t="n">
-        <v>-0.06671330883111341</v>
+        <v>-0.05003498162333506</v>
       </c>
     </row>
     <row r="455">
@@ -54194,7 +54194,7 @@
         <v>0.09374256815685494</v>
       </c>
       <c r="AL455" t="n">
-        <v>0.3419877727070269</v>
+        <v>0.2564908295302702</v>
       </c>
     </row>
     <row r="456">
@@ -54312,7 +54312,7 @@
         <v>0.2064609493224508</v>
       </c>
       <c r="AL456" t="n">
-        <v>0.2093886794871199</v>
+        <v>0.1570415096153399</v>
       </c>
     </row>
     <row r="457">
@@ -54430,7 +54430,7 @@
         <v>0.4039979619260767</v>
       </c>
       <c r="AL457" t="n">
-        <v>0.293136851024776</v>
+        <v>0.219852638268582</v>
       </c>
     </row>
     <row r="458">
@@ -54548,7 +54548,7 @@
         <v>0.1854011354085498</v>
       </c>
       <c r="AL458" t="n">
-        <v>0.2699375094352987</v>
+        <v>0.202453132076474</v>
       </c>
     </row>
     <row r="459">
@@ -54666,7 +54666,7 @@
         <v>0.1704284671977302</v>
       </c>
       <c r="AL459" t="n">
-        <v>0.485643717580563</v>
+        <v>0.3642327881854223</v>
       </c>
     </row>
     <row r="460">
@@ -54784,7 +54784,7 @@
         <v>0.1752246561795399</v>
       </c>
       <c r="AL460" t="n">
-        <v>0.2451198193996022</v>
+        <v>0.1838398645497016</v>
       </c>
     </row>
     <row r="461">
@@ -54902,7 +54902,7 @@
         <v>0.2262658513430344</v>
       </c>
       <c r="AL461" t="n">
-        <v>0.4940785173613438</v>
+        <v>0.3705588880210079</v>
       </c>
     </row>
     <row r="462">
@@ -55020,7 +55020,7 @@
         <v>0.5455618181619258</v>
       </c>
       <c r="AL462" t="n">
-        <v>0.2692795617048784</v>
+        <v>0.2019596712786588</v>
       </c>
     </row>
     <row r="463">
@@ -55138,7 +55138,7 @@
         <v>0.1722035139683095</v>
       </c>
       <c r="AL463" t="n">
-        <v>0.2052137401929136</v>
+        <v>0.1539103051446852</v>
       </c>
     </row>
     <row r="464">
@@ -55256,7 +55256,7 @@
         <v>0.2289085909603692</v>
       </c>
       <c r="AL464" t="n">
-        <v>0.5817762458209911</v>
+        <v>0.4363321843657433</v>
       </c>
     </row>
     <row r="465">
@@ -55374,7 +55374,7 @@
         <v>0.1741169917878941</v>
       </c>
       <c r="AL465" t="n">
-        <v>0.2622622512335652</v>
+        <v>0.1966966884251739</v>
       </c>
     </row>
     <row r="466">
@@ -55492,7 +55492,7 @@
         <v>0.005894971646936756</v>
       </c>
       <c r="AL466" t="n">
-        <v>0.6198611504093178</v>
+        <v>0.4648958628069884</v>
       </c>
     </row>
     <row r="467">
@@ -55610,7 +55610,7 @@
         <v>0.189039580293852</v>
       </c>
       <c r="AL467" t="n">
-        <v>0.2386871364624706</v>
+        <v>0.179015352346853</v>
       </c>
     </row>
     <row r="468">
@@ -55728,7 +55728,7 @@
         <v>0.2183839311150178</v>
       </c>
       <c r="AL468" t="n">
-        <v>0.4155486487769582</v>
+        <v>0.3116614865827187</v>
       </c>
     </row>
     <row r="469">
@@ -55846,7 +55846,7 @@
         <v>0.1699566009361687</v>
       </c>
       <c r="AL469" t="n">
-        <v>0.1365617024898146</v>
+        <v>0.102421276867361</v>
       </c>
     </row>
     <row r="470">
@@ -55964,7 +55964,7 @@
         <v>0.4583711485527019</v>
       </c>
       <c r="AL470" t="n">
-        <v>0.08045475732576296</v>
+        <v>0.06034106799432222</v>
       </c>
     </row>
     <row r="471">
@@ -56082,7 +56082,7 @@
         <v>0.3063940163111531</v>
       </c>
       <c r="AL471" t="n">
-        <v>0.5317568961666</v>
+        <v>0.39881767212495</v>
       </c>
     </row>
     <row r="472">
@@ -56200,7 +56200,7 @@
         <v>0.3550900680490854</v>
       </c>
       <c r="AL472" t="n">
-        <v>0.07237310050715641</v>
+        <v>0.05427982538036731</v>
       </c>
     </row>
     <row r="473">
@@ -56318,7 +56318,7 @@
         <v>0.376732648581776</v>
       </c>
       <c r="AL473" t="n">
-        <v>0.3540160678980817</v>
+        <v>0.2655120509235612</v>
       </c>
     </row>
     <row r="474">
@@ -56436,7 +56436,7 @@
         <v>0.2415688624266587</v>
       </c>
       <c r="AL474" t="n">
-        <v>0.2694249275747281</v>
+        <v>0.202068695681046</v>
       </c>
     </row>
     <row r="475">
@@ -56554,7 +56554,7 @@
         <v>0.3239660864869446</v>
       </c>
       <c r="AL475" t="n">
-        <v>0.2134772414762287</v>
+        <v>0.1601079311071715</v>
       </c>
     </row>
     <row r="476">
@@ -56672,7 +56672,7 @@
         <v>0.3209551500610439</v>
       </c>
       <c r="AL476" t="n">
-        <v>0.3262495706621111</v>
+        <v>0.2446871779965833</v>
       </c>
     </row>
     <row r="477">
@@ -56790,7 +56790,7 @@
         <v>0.442177869111196</v>
       </c>
       <c r="AL477" t="n">
-        <v>0.2832430533020258</v>
+        <v>0.2124322899765194</v>
       </c>
     </row>
     <row r="478">
@@ -56908,7 +56908,7 @@
         <v>0.1997613967138881</v>
       </c>
       <c r="AL478" t="n">
-        <v>0.1325998527638768</v>
+        <v>0.0994498895729076</v>
       </c>
     </row>
     <row r="479">
@@ -57026,7 +57026,7 @@
         <v>0.4648574257958051</v>
       </c>
       <c r="AL479" t="n">
-        <v>0.07887253361175159</v>
+        <v>0.05915440020881369</v>
       </c>
     </row>
     <row r="480">
@@ -57144,7 +57144,7 @@
         <v>0.295289904148713</v>
       </c>
       <c r="AL480" t="n">
-        <v>0.1698786365328365</v>
+        <v>0.1274089773996274</v>
       </c>
     </row>
     <row r="481">
@@ -57262,7 +57262,7 @@
         <v>0.1797704311358579</v>
       </c>
       <c r="AL481" t="n">
-        <v>0.06681732567240926</v>
+        <v>0.05011299425430694</v>
       </c>
     </row>
     <row r="482">
@@ -57380,7 +57380,7 @@
         <v>0.1822681184594488</v>
       </c>
       <c r="AL482" t="n">
-        <v>0.4051596817779668</v>
+        <v>0.3038697613334751</v>
       </c>
     </row>
     <row r="483">
@@ -57498,7 +57498,7 @@
         <v>0.2709805516083163</v>
       </c>
       <c r="AL483" t="n">
-        <v>0.2505022826143454</v>
+        <v>0.1878767119607591</v>
       </c>
     </row>
     <row r="484">
@@ -57616,7 +57616,7 @@
         <v>0.1866665385518915</v>
       </c>
       <c r="AL484" t="n">
-        <v>0.3627301299409074</v>
+        <v>0.2720475974556805</v>
       </c>
     </row>
     <row r="485">
@@ -57734,7 +57734,7 @@
         <v>0.2493456189406566</v>
       </c>
       <c r="AL485" t="n">
-        <v>0.5317249314455988</v>
+        <v>0.3987936985841992</v>
       </c>
     </row>
     <row r="486">
@@ -57852,7 +57852,7 @@
         <v>0.5826762740167025</v>
       </c>
       <c r="AL486" t="n">
-        <v>0.1084011178921232</v>
+        <v>0.08130083841909241</v>
       </c>
     </row>
     <row r="487">
@@ -57970,7 +57970,7 @@
         <v>0.01600718477428422</v>
       </c>
       <c r="AL487" t="n">
-        <v>0.1865492018595006</v>
+        <v>0.1399119013946254</v>
       </c>
     </row>
     <row r="488">
@@ -58088,7 +58088,7 @@
         <v>0.4815450028476256</v>
       </c>
       <c r="AL488" t="n">
-        <v>0.2811706289577809</v>
+        <v>0.2108779717183357</v>
       </c>
     </row>
     <row r="489">
@@ -58206,7 +58206,7 @@
         <v>0.2450004011444725</v>
       </c>
       <c r="AL489" t="n">
-        <v>0.2828132772225436</v>
+        <v>0.2121099579169077</v>
       </c>
     </row>
     <row r="490">
@@ -58324,7 +58324,7 @@
         <v>0.3015335878319891</v>
       </c>
       <c r="AL490" t="n">
-        <v>0.203023955118152</v>
+        <v>0.152267966338614</v>
       </c>
     </row>
     <row r="491">
@@ -58442,7 +58442,7 @@
         <v>0.2607107134754592</v>
       </c>
       <c r="AL491" t="n">
-        <v>-0.1791267268054996</v>
+        <v>-0.1343450451041247</v>
       </c>
     </row>
     <row r="492">
@@ -58560,7 +58560,7 @@
         <v>0.2777802952494271</v>
       </c>
       <c r="AL492" t="n">
-        <v>0.09628506394625858</v>
+        <v>0.07221379795969393</v>
       </c>
     </row>
     <row r="493">
@@ -58678,7 +58678,7 @@
         <v>0.27369973842796</v>
       </c>
       <c r="AL493" t="n">
-        <v>-0.0804703507091092</v>
+        <v>-0.0603527630318319</v>
       </c>
     </row>
     <row r="494">
@@ -58796,7 +58796,7 @@
         <v>0.3158499250178274</v>
       </c>
       <c r="AL494" t="n">
-        <v>0.0004710843641784757</v>
+        <v>0.0003533132731338567</v>
       </c>
     </row>
     <row r="495">
@@ -58914,7 +58914,7 @@
         <v>0.08607154527959093</v>
       </c>
       <c r="AL495" t="n">
-        <v>0.3471020705885413</v>
+        <v>0.2603265529414059</v>
       </c>
     </row>
     <row r="496">
@@ -59032,7 +59032,7 @@
         <v>0.2177976574546966</v>
       </c>
       <c r="AL496" t="n">
-        <v>0.4986354615529782</v>
+        <v>0.3739765961647337</v>
       </c>
     </row>
     <row r="497">
@@ -59150,7 +59150,7 @@
         <v>0.1023742400967581</v>
       </c>
       <c r="AL497" t="n">
-        <v>0.3806982828826093</v>
+        <v>0.2855237121619569</v>
       </c>
     </row>
     <row r="498">
@@ -59268,7 +59268,7 @@
         <v>0.2992727135095681</v>
       </c>
       <c r="AL498" t="n">
-        <v>-0.0581955082238616</v>
+        <v>-0.0436466311678962</v>
       </c>
     </row>
     <row r="499">
@@ -59386,7 +59386,7 @@
         <v>0.1883592635808693</v>
       </c>
       <c r="AL499" t="n">
-        <v>0.6251491043333356</v>
+        <v>0.4688618282500017</v>
       </c>
     </row>
     <row r="500">
@@ -59504,7 +59504,7 @@
         <v>0.2462565075772809</v>
       </c>
       <c r="AL500" t="n">
-        <v>0.526036273124443</v>
+        <v>0.3945272048433323</v>
       </c>
     </row>
     <row r="501">
@@ -59622,7 +59622,7 @@
         <v>0.1839960598772167</v>
       </c>
       <c r="AL501" t="n">
-        <v>0.1705434309068625</v>
+        <v>0.1279075731801469</v>
       </c>
     </row>
     <row r="502">
@@ -59740,7 +59740,7 @@
         <v>0.3597183836672213</v>
       </c>
       <c r="AL502" t="n">
-        <v>0.3148942377523259</v>
+        <v>0.2361706783142445</v>
       </c>
     </row>
     <row r="503">
@@ -59858,7 +59858,7 @@
         <v>0.1712235910265473</v>
       </c>
       <c r="AL503" t="n">
-        <v>0.262025089942883</v>
+        <v>0.1965188174571623</v>
       </c>
     </row>
     <row r="504">
@@ -59976,7 +59976,7 @@
         <v>0.2283458599337073</v>
       </c>
       <c r="AL504" t="n">
-        <v>0.05511675651995</v>
+        <v>0.0413375673899625</v>
       </c>
     </row>
     <row r="505">
@@ -60094,7 +60094,7 @@
         <v>0.2734805596884479</v>
       </c>
       <c r="AL505" t="n">
-        <v>0.2228532736326706</v>
+        <v>0.1671399552245029</v>
       </c>
     </row>
     <row r="506">
@@ -60212,7 +60212,7 @@
         <v>0.3235421059300976</v>
       </c>
       <c r="AL506" t="n">
-        <v>0.5203035127445581</v>
+        <v>0.3902276345584186</v>
       </c>
     </row>
     <row r="507">
@@ -60330,7 +60330,7 @@
         <v>0.07821593350146626</v>
       </c>
       <c r="AL507" t="n">
-        <v>0.4595184860358151</v>
+        <v>0.3446388645268613</v>
       </c>
     </row>
     <row r="508">
@@ -60448,7 +60448,7 @@
         <v>0.2580250880310812</v>
       </c>
       <c r="AL508" t="n">
-        <v>0.1252951153415087</v>
+        <v>0.0939713365061315</v>
       </c>
     </row>
     <row r="509">
@@ -60566,7 +60566,7 @@
         <v>0.1650594453404695</v>
       </c>
       <c r="AL509" t="n">
-        <v>0.1694200059864455</v>
+        <v>0.1270650044898342</v>
       </c>
     </row>
     <row r="510">
@@ -60684,7 +60684,7 @@
         <v>0.2626725668284572</v>
       </c>
       <c r="AL510" t="n">
-        <v>0.2586589093569764</v>
+        <v>0.1939941820177323</v>
       </c>
     </row>
     <row r="511">
@@ -60802,7 +60802,7 @@
         <v>0.3189156767245777</v>
       </c>
       <c r="AL511" t="n">
-        <v>0.08365814075086991</v>
+        <v>0.06274360556315244</v>
       </c>
     </row>
     <row r="512">
@@ -60920,7 +60920,7 @@
         <v>0.5241180070548209</v>
       </c>
       <c r="AL512" t="n">
-        <v>0.3261851128883361</v>
+        <v>0.2446388346662521</v>
       </c>
     </row>
     <row r="513">
@@ -61038,7 +61038,7 @@
         <v>0.1285430906126396</v>
       </c>
       <c r="AL513" t="n">
-        <v>0.5187855588799192</v>
+        <v>0.3890891691599394</v>
       </c>
     </row>
     <row r="514">
@@ -61156,7 +61156,7 @@
         <v>0.3330272176509281</v>
       </c>
       <c r="AL514" t="n">
-        <v>0.5344965415555206</v>
+        <v>0.4008724061666405</v>
       </c>
     </row>
     <row r="515">
@@ -61274,7 +61274,7 @@
         <v>0.2896405437703459</v>
       </c>
       <c r="AL515" t="n">
-        <v>-0.2535477244369573</v>
+        <v>-0.190160793327718</v>
       </c>
     </row>
     <row r="516">
@@ -61392,7 +61392,7 @@
         <v>0.1991115505538581</v>
       </c>
       <c r="AL516" t="n">
-        <v>0.1016568394484531</v>
+        <v>0.07624262958633982</v>
       </c>
     </row>
     <row r="517">
@@ -61510,7 +61510,7 @@
         <v>0.2875408586502939</v>
       </c>
       <c r="AL517" t="n">
-        <v>0.528354805581284</v>
+        <v>0.396266104185963</v>
       </c>
     </row>
     <row r="518">
@@ -61628,7 +61628,7 @@
         <v>0.02304998709412592</v>
       </c>
       <c r="AL518" t="n">
-        <v>0.1429824386086408</v>
+        <v>0.1072368289564806</v>
       </c>
     </row>
     <row r="519">
@@ -61746,7 +61746,7 @@
         <v>0.1966609509051483</v>
       </c>
       <c r="AL519" t="n">
-        <v>-0.06519335774098818</v>
+        <v>-0.04889501830574114</v>
       </c>
     </row>
     <row r="520">
@@ -61864,7 +61864,7 @@
         <v>0.1547300413112227</v>
       </c>
       <c r="AL520" t="n">
-        <v>0.4800611381403901</v>
+        <v>0.3600458536052926</v>
       </c>
     </row>
     <row r="521">
@@ -61982,7 +61982,7 @@
         <v>0.1876303887230873</v>
       </c>
       <c r="AL521" t="n">
-        <v>0.2197926007385035</v>
+        <v>0.1648444505538776</v>
       </c>
     </row>
     <row r="522">
@@ -62100,7 +62100,7 @@
         <v>0.4240074300262638</v>
       </c>
       <c r="AL522" t="n">
-        <v>0.1146639694886782</v>
+        <v>0.08599797711650864</v>
       </c>
     </row>
     <row r="523">
@@ -62218,7 +62218,7 @@
         <v>0.1234039112712767</v>
       </c>
       <c r="AL523" t="n">
-        <v>0.6892575051483257</v>
+        <v>0.5169431288612443</v>
       </c>
     </row>
     <row r="524">
@@ -62336,7 +62336,7 @@
         <v>0.14938611090673</v>
       </c>
       <c r="AL524" t="n">
-        <v>0.3910588844635828</v>
+        <v>0.2932941633476871</v>
       </c>
     </row>
     <row r="525">
@@ -62454,7 +62454,7 @@
         <v>0.2394912585509833</v>
       </c>
       <c r="AL525" t="n">
-        <v>0.3209378122516583</v>
+        <v>0.2407033591887437</v>
       </c>
     </row>
     <row r="526">
@@ -62572,7 +62572,7 @@
         <v>0.3211044869098811</v>
       </c>
       <c r="AL526" t="n">
-        <v>0.3705319847435218</v>
+        <v>0.2778989885576413</v>
       </c>
     </row>
     <row r="527">
@@ -62690,7 +62690,7 @@
         <v>0.2539642721295773</v>
       </c>
       <c r="AL527" t="n">
-        <v>0.3908368155947838</v>
+        <v>0.2931276116960879</v>
       </c>
     </row>
     <row r="528">
@@ -62808,7 +62808,7 @@
         <v>0.03133669135837974</v>
       </c>
       <c r="AL528" t="n">
-        <v>0.2698798112391428</v>
+        <v>0.2024098584293571</v>
       </c>
     </row>
     <row r="529">
@@ -62926,7 +62926,7 @@
         <v>0.1473644857564743</v>
       </c>
       <c r="AL529" t="n">
-        <v>0.1008047781723557</v>
+        <v>0.07560358362926675</v>
       </c>
     </row>
     <row r="530">
@@ -63044,7 +63044,7 @@
         <v>0.2779397036805538</v>
       </c>
       <c r="AL530" t="n">
-        <v>0.03917241867157199</v>
+        <v>0.02937931400367899</v>
       </c>
     </row>
     <row r="531">
@@ -63162,7 +63162,7 @@
         <v>0.09508877437149639</v>
       </c>
       <c r="AL531" t="n">
-        <v>0.1626811616577284</v>
+        <v>0.1220108712432963</v>
       </c>
     </row>
     <row r="532">
@@ -63280,7 +63280,7 @@
         <v>0.04768028825109209</v>
       </c>
       <c r="AL532" t="n">
-        <v>-0.006046738615415233</v>
+        <v>-0.004535053961561425</v>
       </c>
     </row>
     <row r="533">
@@ -63398,7 +63398,7 @@
         <v>0.1697586044558321</v>
       </c>
       <c r="AL533" t="n">
-        <v>0.3473063344732909</v>
+        <v>0.2604797508549682</v>
       </c>
     </row>
     <row r="534">
@@ -63516,7 +63516,7 @@
         <v>0.1651005696030658</v>
       </c>
       <c r="AL534" t="n">
-        <v>0.1710189902604649</v>
+        <v>0.1282642426953486</v>
       </c>
     </row>
     <row r="535">
@@ -63634,7 +63634,7 @@
         <v>0.3030304515491832</v>
       </c>
       <c r="AL535" t="n">
-        <v>0.5110616298108642</v>
+        <v>0.3832962223581481</v>
       </c>
     </row>
     <row r="536">
@@ -63752,7 +63752,7 @@
         <v>0.4917979113873387</v>
       </c>
       <c r="AL536" t="n">
-        <v>-0.1404979605778535</v>
+        <v>-0.1053734704333901</v>
       </c>
     </row>
     <row r="537">
@@ -63870,7 +63870,7 @@
         <v>0.1477870864349401</v>
       </c>
       <c r="AL537" t="n">
-        <v>0.4815559204582801</v>
+        <v>0.3611669403437101</v>
       </c>
     </row>
     <row r="538">
@@ -63988,7 +63988,7 @@
         <v>0.1735920996860072</v>
       </c>
       <c r="AL538" t="n">
-        <v>0.2979242994736306</v>
+        <v>0.223443224605223</v>
       </c>
     </row>
     <row r="539">
@@ -64106,7 +64106,7 @@
         <v>0.1422920806918269</v>
       </c>
       <c r="AL539" t="n">
-        <v>0.21807945563885</v>
+        <v>0.1635595917291375</v>
       </c>
     </row>
     <row r="540">
@@ -64224,7 +64224,7 @@
         <v>0.3066414093199319</v>
       </c>
       <c r="AL540" t="n">
-        <v>0.5953860373439891</v>
+        <v>0.4465395280079918</v>
       </c>
     </row>
     <row r="541">
@@ -64342,7 +64342,7 @@
         <v>0.1869787949172237</v>
       </c>
       <c r="AL541" t="n">
-        <v>0.368986340962966</v>
+        <v>0.2767397557222245</v>
       </c>
     </row>
     <row r="542">
@@ -64460,7 +64460,7 @@
         <v>0.1032933371608179</v>
       </c>
       <c r="AL542" t="n">
-        <v>0.1314035771415124</v>
+        <v>0.09855268285613428</v>
       </c>
     </row>
     <row r="543">
@@ -64578,7 +64578,7 @@
         <v>0.5841520669835999</v>
       </c>
       <c r="AL543" t="n">
-        <v>0.3436667049707968</v>
+        <v>0.2577500287280976</v>
       </c>
     </row>
     <row r="544">
@@ -64696,7 +64696,7 @@
         <v>0.1028020512420538</v>
       </c>
       <c r="AL544" t="n">
-        <v>0.4983331582103485</v>
+        <v>0.3737498686577614</v>
       </c>
     </row>
     <row r="545">
@@ -64814,7 +64814,7 @@
         <v>0.0658969555510928</v>
       </c>
       <c r="AL545" t="n">
-        <v>0.4195313707801751</v>
+        <v>0.3146485280851313</v>
       </c>
     </row>
     <row r="546">
@@ -64932,7 +64932,7 @@
         <v>0.1007128655248301</v>
       </c>
       <c r="AL546" t="n">
-        <v>-0.08755414317197861</v>
+        <v>-0.06566560737898396</v>
       </c>
     </row>
     <row r="547">
@@ -65050,7 +65050,7 @@
         <v>0.3267929137408049</v>
       </c>
       <c r="AL547" t="n">
-        <v>0.3348751589505953</v>
+        <v>0.2511563692129465</v>
       </c>
     </row>
     <row r="548">
@@ -65168,7 +65168,7 @@
         <v>0.3548238988296008</v>
       </c>
       <c r="AL548" t="n">
-        <v>0.3555554573534594</v>
+        <v>0.2666665930150945</v>
       </c>
     </row>
     <row r="549">
@@ -65286,7 +65286,7 @@
         <v>0.2721409088219489</v>
       </c>
       <c r="AL549" t="n">
-        <v>0.3368372209144343</v>
+        <v>0.2526279156858257</v>
       </c>
     </row>
     <row r="550">
@@ -65404,7 +65404,7 @@
         <v>0.02423552229337255</v>
       </c>
       <c r="AL550" t="n">
-        <v>0.09921960542242469</v>
+        <v>0.07441470406681852</v>
       </c>
     </row>
     <row r="551">
@@ -65522,7 +65522,7 @@
         <v>0.04420624937100631</v>
       </c>
       <c r="AL551" t="n">
-        <v>0.3136088140995129</v>
+        <v>0.2352066105746346</v>
       </c>
     </row>
     <row r="552">
@@ -65640,7 +65640,7 @@
         <v>0.5432656212985769</v>
       </c>
       <c r="AL552" t="n">
-        <v>0.3275298348429954</v>
+        <v>0.2456473761322466</v>
       </c>
     </row>
     <row r="553">
@@ -65758,7 +65758,7 @@
         <v>0.1750018320225</v>
       </c>
       <c r="AL553" t="n">
-        <v>0.2220999320672798</v>
+        <v>0.1665749490504599</v>
       </c>
     </row>
     <row r="554">
@@ -65876,7 +65876,7 @@
         <v>0.402873841368395</v>
       </c>
       <c r="AL554" t="n">
-        <v>0.4166490417504434</v>
+        <v>0.3124867813128326</v>
       </c>
     </row>
     <row r="555">
@@ -65994,7 +65994,7 @@
         <v>0.2173526449313619</v>
       </c>
       <c r="AL555" t="n">
-        <v>0.2642567457473884</v>
+        <v>0.1981925593105413</v>
       </c>
     </row>
     <row r="556">
@@ -66112,7 +66112,7 @@
         <v>0.005197182306922781</v>
       </c>
       <c r="AL556" t="n">
-        <v>0.2206372727870455</v>
+        <v>0.1654779545902841</v>
       </c>
     </row>
     <row r="557">
@@ -66230,7 +66230,7 @@
         <v>0.3342585782093104</v>
       </c>
       <c r="AL557" t="n">
-        <v>0.2484674636042619</v>
+        <v>0.1863505977031964</v>
       </c>
     </row>
     <row r="558">
@@ -66348,7 +66348,7 @@
         <v>0.1645108659626373</v>
       </c>
       <c r="AL558" t="n">
-        <v>0.380885148843871</v>
+        <v>0.2856638616329032</v>
       </c>
     </row>
     <row r="559">
@@ -66466,7 +66466,7 @@
         <v>0.4809002678056227</v>
       </c>
       <c r="AL559" t="n">
-        <v>0.1581525818726671</v>
+        <v>0.1186144364045003</v>
       </c>
     </row>
     <row r="560">
@@ -66584,7 +66584,7 @@
         <v>0.2431316117969128</v>
       </c>
       <c r="AL560" t="n">
-        <v>0.4266845738475084</v>
+        <v>0.3200134303856313</v>
       </c>
     </row>
     <row r="561">
@@ -66702,7 +66702,7 @@
         <v>0.2544735961668932</v>
       </c>
       <c r="AL561" t="n">
-        <v>0.1067591555197582</v>
+        <v>0.08006936663981862</v>
       </c>
     </row>
     <row r="562">
@@ -66820,7 +66820,7 @@
         <v>0.4577922604930721</v>
       </c>
       <c r="AL562" t="n">
-        <v>0.09231988547371585</v>
+        <v>0.06923991410528689</v>
       </c>
     </row>
     <row r="563">
@@ -66938,7 +66938,7 @@
         <v>0.1750211596141477</v>
       </c>
       <c r="AL563" t="n">
-        <v>0.3671761617611409</v>
+        <v>0.2753821213208557</v>
       </c>
     </row>
     <row r="564">
@@ -67056,7 +67056,7 @@
         <v>0.3283533012111379</v>
       </c>
       <c r="AL564" t="n">
-        <v>0.4660488311516959</v>
+        <v>0.3495366233637719</v>
       </c>
     </row>
     <row r="565">
@@ -67174,7 +67174,7 @@
         <v>0.3423406133646839</v>
       </c>
       <c r="AL565" t="n">
-        <v>0.06320644081843728</v>
+        <v>0.04740483061382796</v>
       </c>
     </row>
     <row r="566">
@@ -67292,7 +67292,7 @@
         <v>0.2835070529088763</v>
       </c>
       <c r="AL566" t="n">
-        <v>0.4822654260975263</v>
+        <v>0.3616990695731447</v>
       </c>
     </row>
     <row r="567">
@@ -67410,7 +67410,7 @@
         <v>0.1633220954553346</v>
       </c>
       <c r="AL567" t="n">
-        <v>-0.119773394882958</v>
+        <v>-0.08983004616221853</v>
       </c>
     </row>
     <row r="568">
@@ -67528,7 +67528,7 @@
         <v>0.5795571119406492</v>
       </c>
       <c r="AL568" t="n">
-        <v>0.4088258034720395</v>
+        <v>0.3066193526040296</v>
       </c>
     </row>
     <row r="569">
@@ -67646,7 +67646,7 @@
         <v>0.0169561094532789</v>
       </c>
       <c r="AL569" t="n">
-        <v>0.1802380108328069</v>
+        <v>0.1351785081246051</v>
       </c>
     </row>
     <row r="570">
@@ -67764,7 +67764,7 @@
         <v>0.4795086480724315</v>
       </c>
       <c r="AL570" t="n">
-        <v>0.4503376572619422</v>
+        <v>0.3377532429464567</v>
       </c>
     </row>
     <row r="571">
@@ -67882,7 +67882,7 @@
         <v>0.002096457905382361</v>
       </c>
       <c r="AL571" t="n">
-        <v>0.2751396838794018</v>
+        <v>0.2063547629095513</v>
       </c>
     </row>
     <row r="572">
@@ -68000,7 +68000,7 @@
         <v>0.09823202416386695</v>
       </c>
       <c r="AL572" t="n">
-        <v>0.5596848365759171</v>
+        <v>0.4197636274319378</v>
       </c>
     </row>
     <row r="573">
@@ -68118,7 +68118,7 @@
         <v>0.314102317412801</v>
       </c>
       <c r="AL573" t="n">
-        <v>0.6895802689365139</v>
+        <v>0.5171852017023855</v>
       </c>
     </row>
     <row r="574">
@@ -68236,7 +68236,7 @@
         <v>0.2691433950527842</v>
       </c>
       <c r="AL574" t="n">
-        <v>0.3145751603944072</v>
+        <v>0.2359313702958054</v>
       </c>
     </row>
     <row r="575">
@@ -68354,7 +68354,7 @@
         <v>0.3994071457652635</v>
       </c>
       <c r="AL575" t="n">
-        <v>0.3904682645582125</v>
+        <v>0.2928511984186594</v>
       </c>
     </row>
     <row r="576">
@@ -68472,7 +68472,7 @@
         <v>0.3346761604900421</v>
       </c>
       <c r="AL576" t="n">
-        <v>0.4119277281632427</v>
+        <v>0.308945796122432</v>
       </c>
     </row>
     <row r="577">
@@ -68590,7 +68590,7 @@
         <v>0.1209514500477232</v>
       </c>
       <c r="AL577" t="n">
-        <v>0.01322065227189042</v>
+        <v>0.009915489203917813</v>
       </c>
     </row>
     <row r="578">
@@ -68708,7 +68708,7 @@
         <v>0.2456419236959871</v>
       </c>
       <c r="AL578" t="n">
-        <v>0.03460355745327941</v>
+        <v>0.02595266808995956</v>
       </c>
     </row>
     <row r="579">
@@ -68826,7 +68826,7 @@
         <v>0.08968171479130212</v>
       </c>
       <c r="AL579" t="n">
-        <v>0.3690745656158188</v>
+        <v>0.2768059242118641</v>
       </c>
     </row>
     <row r="580">
@@ -68944,7 +68944,7 @@
         <v>0.150493287978935</v>
       </c>
       <c r="AL580" t="n">
-        <v>0.3651603112337873</v>
+        <v>0.2738702334253405</v>
       </c>
     </row>
     <row r="581">
@@ -69062,7 +69062,7 @@
         <v>0.258657557433515</v>
       </c>
       <c r="AL581" t="n">
-        <v>0.1591761722249973</v>
+        <v>0.119382129168748</v>
       </c>
     </row>
     <row r="582">
@@ -69180,7 +69180,7 @@
         <v>0.05559310400626045</v>
       </c>
       <c r="AL582" t="n">
-        <v>0.3696008376168838</v>
+        <v>0.2772006282126629</v>
       </c>
     </row>
     <row r="583">
@@ -69298,7 +69298,7 @@
         <v>0.008383642065146029</v>
       </c>
       <c r="AL583" t="n">
-        <v>0.4706711746700578</v>
+        <v>0.3530033810025434</v>
       </c>
     </row>
     <row r="584">
@@ -69416,7 +69416,7 @@
         <v>0.3332091914167447</v>
       </c>
       <c r="AL584" t="n">
-        <v>0.2452740406220184</v>
+        <v>0.1839555304665138</v>
       </c>
     </row>
     <row r="585">
@@ -69534,7 +69534,7 @@
         <v>0.2642641557692009</v>
       </c>
       <c r="AL585" t="n">
-        <v>-0.02312643239741337</v>
+        <v>-0.01734482429806003</v>
       </c>
     </row>
     <row r="586">
@@ -69652,7 +69652,7 @@
         <v>0.0860611321353727</v>
       </c>
       <c r="AL586" t="n">
-        <v>0.5351418761094043</v>
+        <v>0.4013564070820532</v>
       </c>
     </row>
     <row r="587">
@@ -69770,7 +69770,7 @@
         <v>0.08216061062627776</v>
       </c>
       <c r="AL587" t="n">
-        <v>0.3059815970640818</v>
+        <v>0.2294861977980613</v>
       </c>
     </row>
     <row r="588">
@@ -69888,7 +69888,7 @@
         <v>0.2128076398854158</v>
       </c>
       <c r="AL588" t="n">
-        <v>0.4923918856833935</v>
+        <v>0.3692939142625451</v>
       </c>
     </row>
     <row r="589">
@@ -70006,7 +70006,7 @@
         <v>0.3055744785772962</v>
       </c>
       <c r="AL589" t="n">
-        <v>0.1563572404946981</v>
+        <v>0.1172679303710236</v>
       </c>
     </row>
     <row r="590">
@@ -70124,7 +70124,7 @@
         <v>0.2630429778940608</v>
       </c>
       <c r="AL590" t="n">
-        <v>0.3944927001800793</v>
+        <v>0.2958695251350594</v>
       </c>
     </row>
     <row r="591">
@@ -70242,7 +70242,7 @@
         <v>0.262610804461512</v>
       </c>
       <c r="AL591" t="n">
-        <v>0.1067497003089026</v>
+        <v>0.08006227523167694</v>
       </c>
     </row>
     <row r="592">
@@ -70360,7 +70360,7 @@
         <v>0.1739763786748582</v>
       </c>
       <c r="AL592" t="n">
-        <v>0.318611994204597</v>
+        <v>0.2389589956534477</v>
       </c>
     </row>
     <row r="593">
@@ -70478,7 +70478,7 @@
         <v>0.05235744302810214</v>
       </c>
       <c r="AL593" t="n">
-        <v>0.2669343862694491</v>
+        <v>0.2002007897020868</v>
       </c>
     </row>
     <row r="594">
@@ -70596,7 +70596,7 @@
         <v>0.0432322384645798</v>
       </c>
       <c r="AL594" t="n">
-        <v>0.3425221088451846</v>
+        <v>0.2568915816338884</v>
       </c>
     </row>
     <row r="595">
@@ -70714,7 +70714,7 @@
         <v>0.1738907815456271</v>
       </c>
       <c r="AL595" t="n">
-        <v>0.4870693814482902</v>
+        <v>0.3653020360862176</v>
       </c>
     </row>
     <row r="596">
@@ -70832,7 +70832,7 @@
         <v>0.1069576111534075</v>
       </c>
       <c r="AL596" t="n">
-        <v>0.4324127173904972</v>
+        <v>0.3243095380428729</v>
       </c>
     </row>
     <row r="597">
@@ -70950,7 +70950,7 @@
         <v>0.2366079968945123</v>
       </c>
       <c r="AL597" t="n">
-        <v>0.4970390011811264</v>
+        <v>0.3727792508858448</v>
       </c>
     </row>
     <row r="598">
@@ -71068,7 +71068,7 @@
         <v>0.258857764849207</v>
       </c>
       <c r="AL598" t="n">
-        <v>0.04489576063062924</v>
+        <v>0.03367182047297193</v>
       </c>
     </row>
     <row r="599">
@@ -71186,7 +71186,7 @@
         <v>0.2978031596065764</v>
       </c>
       <c r="AL599" t="n">
-        <v>0.4915710401789564</v>
+        <v>0.3686782801342173</v>
       </c>
     </row>
     <row r="600">
@@ -71304,7 +71304,7 @@
         <v>0.1901272352703273</v>
       </c>
       <c r="AL600" t="n">
-        <v>0.2613846982176229</v>
+        <v>0.1960385236632172</v>
       </c>
     </row>
     <row r="601">
@@ -71422,7 +71422,7 @@
         <v>0.6651182755716926</v>
       </c>
       <c r="AL601" t="n">
-        <v>0.3838664877259374</v>
+        <v>0.287899865794453</v>
       </c>
     </row>
     <row r="602">
@@ -71540,7 +71540,7 @@
         <v>0.3217030129584653</v>
       </c>
       <c r="AL602" t="n">
-        <v>0.04140204149244122</v>
+        <v>0.03105153111933092</v>
       </c>
     </row>
     <row r="603">
@@ -71658,7 +71658,7 @@
         <v>0.4813387659333727</v>
       </c>
       <c r="AL603" t="n">
-        <v>0.4297331645634479</v>
+        <v>0.3222998734225859</v>
       </c>
     </row>
     <row r="604">
@@ -71776,7 +71776,7 @@
         <v>0.1712691677622931</v>
       </c>
       <c r="AL604" t="n">
-        <v>0.3496730853036084</v>
+        <v>0.2622548139777063</v>
       </c>
     </row>
     <row r="605">
@@ -71894,7 +71894,7 @@
         <v>0.3530941884498731</v>
       </c>
       <c r="AL605" t="n">
-        <v>0.4248699331013239</v>
+        <v>0.3186524498259929</v>
       </c>
     </row>
     <row r="606">
@@ -72012,7 +72012,7 @@
         <v>0.3910392158390776</v>
       </c>
       <c r="AL606" t="n">
-        <v>0.190209784013378</v>
+        <v>0.1426573380100335</v>
       </c>
     </row>
     <row r="607">
@@ -72130,7 +72130,7 @@
         <v>0.1000806771718934</v>
       </c>
       <c r="AL607" t="n">
-        <v>0.4877972519318299</v>
+        <v>0.3658479389488725</v>
       </c>
     </row>
     <row r="608">
@@ -72248,7 +72248,7 @@
         <v>0.2163209819921728</v>
       </c>
       <c r="AL608" t="n">
-        <v>0.4867161155087301</v>
+        <v>0.3650370866315476</v>
       </c>
     </row>
     <row r="609">
@@ -72366,7 +72366,7 @@
         <v>0.2335208620656604</v>
       </c>
       <c r="AL609" t="n">
-        <v>-0.04584496113785882</v>
+        <v>-0.03438372085339411</v>
       </c>
     </row>
     <row r="610">
@@ -72484,7 +72484,7 @@
         <v>0.3339717008239231</v>
       </c>
       <c r="AL610" t="n">
-        <v>0.4300447645857299</v>
+        <v>0.3225335734392974</v>
       </c>
     </row>
     <row r="611">
@@ -72602,7 +72602,7 @@
         <v>0.08806804043665391</v>
       </c>
       <c r="AL611" t="n">
-        <v>0.1100055253084518</v>
+        <v>0.08250414398133882</v>
       </c>
     </row>
     <row r="612">
@@ -72720,7 +72720,7 @@
         <v>0.2737196553319421</v>
       </c>
       <c r="AL612" t="n">
-        <v>0.5035845566084022</v>
+        <v>0.3776884174563016</v>
       </c>
     </row>
     <row r="613">
@@ -72838,7 +72838,7 @@
         <v>0.102481091043589</v>
       </c>
       <c r="AL613" t="n">
-        <v>0.3071933192570457</v>
+        <v>0.2303949894427842</v>
       </c>
     </row>
     <row r="614">
@@ -72956,7 +72956,7 @@
         <v>0.3115616461211446</v>
       </c>
       <c r="AL614" t="n">
-        <v>0.1277416829087335</v>
+        <v>0.09580626218155013</v>
       </c>
     </row>
     <row r="615">
@@ -73074,7 +73074,7 @@
         <v>0.1672482428537901</v>
       </c>
       <c r="AL615" t="n">
-        <v>0.06683945629941539</v>
+        <v>0.05012959222456154</v>
       </c>
     </row>
     <row r="616">
@@ -73192,7 +73192,7 @@
         <v>0.09481182310797549</v>
       </c>
       <c r="AL616" t="n">
-        <v>0.4787118978267795</v>
+        <v>0.3590339233700846</v>
       </c>
     </row>
     <row r="617">
@@ -73310,7 +73310,7 @@
         <v>0.06677065019287211</v>
       </c>
       <c r="AL617" t="n">
-        <v>0.4442321512306069</v>
+        <v>0.3331741134229552</v>
       </c>
     </row>
     <row r="618">
@@ -73428,7 +73428,7 @@
         <v>0.1961070049288596</v>
       </c>
       <c r="AL618" t="n">
-        <v>0.4808374106512641</v>
+        <v>0.3606280579884481</v>
       </c>
     </row>
     <row r="619">
@@ -73546,7 +73546,7 @@
         <v>0.2808797827603158</v>
       </c>
       <c r="AL619" t="n">
-        <v>0.5482269522040345</v>
+        <v>0.4111702141530258</v>
       </c>
     </row>
     <row r="620">
@@ -73664,7 +73664,7 @@
         <v>0.4788629096687669</v>
       </c>
       <c r="AL620" t="n">
-        <v>0.08150239631095883</v>
+        <v>0.06112679723321912</v>
       </c>
     </row>
     <row r="621">
@@ -73782,7 +73782,7 @@
         <v>0.1953233953812968</v>
       </c>
       <c r="AL621" t="n">
-        <v>0.2551520092028319</v>
+        <v>0.1913640069021239</v>
       </c>
     </row>
     <row r="622">
@@ -73900,7 +73900,7 @@
         <v>0.1765599366825392</v>
       </c>
       <c r="AL622" t="n">
-        <v>0.293759415963732</v>
+        <v>0.2203195619727989</v>
       </c>
     </row>
     <row r="623">
@@ -74018,7 +74018,7 @@
         <v>0.3086507784482992</v>
       </c>
       <c r="AL623" t="n">
-        <v>0.3844023550689391</v>
+        <v>0.2883017663017043</v>
       </c>
     </row>
     <row r="624">
@@ -74136,7 +74136,7 @@
         <v>0.178440832840246</v>
       </c>
       <c r="AL624" t="n">
-        <v>0.4288181819901924</v>
+        <v>0.3216136364926444</v>
       </c>
     </row>
     <row r="625">
@@ -74254,7 +74254,7 @@
         <v>0.0356583092033207</v>
       </c>
       <c r="AL625" t="n">
-        <v>0.08516947438229133</v>
+        <v>0.0638771057867185</v>
       </c>
     </row>
   </sheetData>
